--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_10_21.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_10_21.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>391591.1308969017</v>
+        <v>385002.6054240731</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>19233775.41034233</v>
+        <v>19233775.41034232</v>
       </c>
     </row>
     <row r="8">
@@ -661,19 +661,19 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>7.537471181140739</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>343.646568403991</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -718,13 +718,13 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>390.1527797502169</v>
@@ -740,7 +740,7 @@
         <v>138.9000023092308</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>132.6551205385437</v>
       </c>
       <c r="D3" t="n">
         <v>115.7281862028015</v>
@@ -749,7 +749,7 @@
         <v>119.2878878475953</v>
       </c>
       <c r="F3" t="n">
-        <v>107.8702810193205</v>
+        <v>56.04623736177333</v>
       </c>
       <c r="G3" t="n">
         <v>105.9202115588047</v>
@@ -791,7 +791,7 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>80.77158201605008</v>
+        <v>157.7484451748619</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -806,7 +806,7 @@
         <v>174.5627220424961</v>
       </c>
       <c r="Y3" t="n">
-        <v>157.8079400398083</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -816,13 +816,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C4" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D4" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>159.3017069803637</v>
@@ -831,13 +831,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G4" t="n">
-        <v>98.7837754157685</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H4" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -867,7 +867,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -882,10 +882,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>206.5373344178206</v>
       </c>
       <c r="Y4" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -895,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>313.3687246458798</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -907,13 +907,13 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>115.9008527225315</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -946,19 +946,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V5" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -995,7 +995,7 @@
         <v>70.03974083464111</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>20.54110546596223</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1025,7 +1025,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>22.00995834964138</v>
+        <v>106.9101097868343</v>
       </c>
       <c r="T6" t="n">
         <v>157.7484451748619</v>
@@ -1034,10 +1034,10 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>211.5744117368965</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>106.1331548337414</v>
       </c>
       <c r="X6" t="n">
         <v>174.5627220424961</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>112.4348987504505</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>115.1825854367171</v>
@@ -1101,10 +1101,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S7" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>237.1532516330649</v>
@@ -1116,13 +1116,13 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>13.99263448916712</v>
       </c>
     </row>
     <row r="8">
@@ -1132,76 +1132,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>219.9483858441846</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>133.9282644538401</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
+        <v>379.9226978561831</v>
+      </c>
+      <c r="X8" t="n">
         <v>390.1527797502169</v>
       </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
+      <c r="Y8" t="n">
         <v>390.1527797502169</v>
-      </c>
-      <c r="G8" t="n">
-        <v>390.1527797502169</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0</v>
-      </c>
-      <c r="V8" t="n">
-        <v>0</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0</v>
-      </c>
-      <c r="X8" t="n">
-        <v>343.6465684039911</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1214,7 +1214,7 @@
         <v>138.9000023092308</v>
       </c>
       <c r="C9" t="n">
-        <v>132.6551205385437</v>
+        <v>40.8352493827204</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -1223,13 +1223,13 @@
         <v>119.2878878475953</v>
       </c>
       <c r="F9" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>70.03974083464111</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1262,10 +1262,10 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>106.9101097868343</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>157.7484451748619</v>
       </c>
       <c r="U9" t="n">
         <v>195.3773027531635</v>
@@ -1274,7 +1274,7 @@
         <v>211.5744117368965</v>
       </c>
       <c r="W9" t="n">
-        <v>206.0294985329457</v>
+        <v>211.1008365810345</v>
       </c>
       <c r="X9" t="n">
         <v>174.5627220424961</v>
@@ -1293,7 +1293,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D10" t="n">
         <v>157.8996982303191</v>
@@ -1302,16 +1302,16 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F10" t="n">
-        <v>162.9848146305146</v>
+        <v>93.60057029297657</v>
       </c>
       <c r="G10" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1344,19 +1344,19 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T10" t="n">
-        <v>149.372096521655</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1369,28 +1369,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E11" t="n">
-        <v>383.6234818185204</v>
+        <v>28.09263387214119</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>402.9937101757981</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>21.98105529738169</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>96.39061873367314</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>212.77340246483</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1432,10 +1432,10 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1466,7 +1466,7 @@
         <v>105.0388331230853</v>
       </c>
       <c r="H12" t="n">
-        <v>61.52748067914077</v>
+        <v>61.52748067914111</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1511,7 +1511,7 @@
         <v>211.5744117368965</v>
       </c>
       <c r="W12" t="n">
-        <v>211.1008365810351</v>
+        <v>211.1008365810345</v>
       </c>
       <c r="X12" t="n">
         <v>174.5627220424961</v>
@@ -1527,25 +1527,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E13" t="n">
-        <v>140.4998697385459</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>164.8389690906254</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>141.5417272291555</v>
       </c>
       <c r="I13" t="n">
         <v>92.96130374789561</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>51.19554760057107</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>171.6505236560984</v>
@@ -1584,19 +1584,19 @@
         <v>233.9960562298768</v>
       </c>
       <c r="U13" t="n">
-        <v>279.9298613571687</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>271.1468876098733</v>
+        <v>99.7674115725132</v>
       </c>
       <c r="W13" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y13" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1609,16 +1609,16 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>32.76771307506498</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>402.9937101757981</v>
@@ -1657,22 +1657,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>96.39061873367314</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>212.77340246483</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>224.7780267654861</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1736,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>90.53889191283612</v>
+        <v>90.53889191283626</v>
       </c>
       <c r="T15" t="n">
         <v>154.1958715677298</v>
@@ -1754,7 +1754,7 @@
         <v>174.5627220424961</v>
       </c>
       <c r="Y15" t="n">
-        <v>157.8079400398086</v>
+        <v>157.8079400398083</v>
       </c>
     </row>
     <row r="16">
@@ -1767,22 +1767,22 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C16" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>159.3017069803637</v>
+        <v>126.3276840645402</v>
       </c>
       <c r="F16" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>164.8389690906254</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>141.5417272291555</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>92.96130374789561</v>
@@ -1815,25 +1815,25 @@
         <v>51.19554760057107</v>
       </c>
       <c r="S16" t="n">
-        <v>133.9700381734477</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>233.9960562298768</v>
       </c>
       <c r="U16" t="n">
         <v>279.9298613571687</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W16" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="17">
@@ -1846,16 +1846,16 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D17" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>402.9937101757981</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>96.39061873367314</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -1903,16 +1903,16 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>31.52808445045368</v>
       </c>
       <c r="Y17" t="n">
-        <v>32.76771307506475</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1931,7 +1931,7 @@
         <v>115.7281862028015</v>
       </c>
       <c r="E18" t="n">
-        <v>119.2878878475956</v>
+        <v>119.2878878475953</v>
       </c>
       <c r="F18" t="n">
         <v>107.8702810193205</v>
@@ -1940,7 +1940,7 @@
         <v>105.0388331230853</v>
       </c>
       <c r="H18" t="n">
-        <v>61.52748067914077</v>
+        <v>61.52748067914111</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2004,25 +2004,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D19" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>164.8389690906254</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>141.5417272291555</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>92.96130374789561</v>
+        <v>49.90654909853511</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2055,7 +2055,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>233.9960562298768</v>
       </c>
       <c r="U19" t="n">
         <v>279.9298613571687</v>
@@ -2067,10 +2067,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X19" t="n">
-        <v>191.5072962578386</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="20">
@@ -2080,25 +2080,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D20" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>133.8005052048339</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F20" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G20" t="n">
-        <v>402.9937101757981</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>290.9290925200442</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>21.98105529738169</v>
@@ -2134,7 +2134,7 @@
         <v>96.39061873367314</v>
       </c>
       <c r="T20" t="n">
-        <v>212.77340246483</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -2149,7 +2149,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>218.5768749973971</v>
       </c>
     </row>
     <row r="21">
@@ -2238,25 +2238,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>185.8227093301039</v>
+        <v>149.9265484233298</v>
       </c>
       <c r="C22" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>112.131369198796</v>
+        <v>164.8389690906254</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>141.5417272291555</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,19 +2286,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>51.19554760057107</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>171.6505236560984</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>233.9960562298768</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>279.9298613571687</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W22" t="n">
         <v>276.2789678462144</v>
@@ -2317,16 +2317,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C23" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E23" t="n">
-        <v>410.1968133282722</v>
+        <v>56.73836013995108</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -2335,10 +2335,10 @@
         <v>402.9937101757981</v>
       </c>
       <c r="H23" t="n">
-        <v>260.0840053048045</v>
+        <v>290.9290925200442</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>21.98105529738169</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>96.39061873367314</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="24">
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>140.4998697385459</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2487,13 +2487,13 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>164.8389690906254</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>141.5417272291555</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>92.96130374789561</v>
@@ -2541,10 +2541,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X25" t="n">
-        <v>129.5831239322864</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="26">
@@ -2554,22 +2554,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>406.0233447798626</v>
+        <v>353.8246131950052</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>350.2180560353333</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>402.9937101757981</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>96.39061873367314</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -2614,16 +2614,16 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y26" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2724,10 +2724,10 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>70.47635885592688</v>
+        <v>98.83401175690854</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>51.19554760057107</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>171.6505236560984</v>
@@ -2791,25 +2791,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E29" t="n">
-        <v>410.1968133282722</v>
+        <v>374.9117092901068</v>
       </c>
       <c r="F29" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G29" t="n">
-        <v>336.9485490284518</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>290.9290925200442</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>96.39061873367314</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -2857,7 +2857,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2949,10 +2949,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C31" t="n">
-        <v>169.3824387139007</v>
+        <v>42.1571156456417</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2961,16 +2961,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G31" t="n">
-        <v>52.06404542061244</v>
+        <v>164.8389690906254</v>
       </c>
       <c r="H31" t="n">
-        <v>141.5417272291555</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>92.96130374789561</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>51.19554760057107</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>171.6505236560984</v>
@@ -3009,7 +3009,7 @@
         <v>279.9298613571687</v>
       </c>
       <c r="V31" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>276.2789678462144</v>
@@ -3018,7 +3018,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="32">
@@ -3028,28 +3028,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>402.9937101757981</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>21.98105529738169</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3082,22 +3082,22 @@
         <v>96.39061873367314</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>212.77340246483</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>35.02937714829289</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>256.9587476127579</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3195,16 +3195,16 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>110.4712365245054</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>164.8389690906254</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>141.5417272291555</v>
       </c>
       <c r="I34" t="n">
         <v>92.96130374789561</v>
@@ -3234,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>51.19554760057107</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>171.6505236560984</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>137.6700475403133</v>
+        <v>233.9960562298768</v>
       </c>
       <c r="U34" t="n">
         <v>279.9298613571687</v>
       </c>
       <c r="V34" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X34" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>406.0233447798626</v>
@@ -3280,13 +3280,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G35" t="n">
-        <v>336.9485490284518</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>21.98105529738169</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>96.39061873367314</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>212.77340246483</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>15.28547654767466</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -3331,7 +3331,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3423,10 +3423,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C37" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3438,7 +3438,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>64.07873477254064</v>
+        <v>164.8389690906254</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>51.19554760057107</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>171.6505236560984</v>
+        <v>105.6455663223813</v>
       </c>
       <c r="T37" t="n">
         <v>233.9960562298768</v>
@@ -3502,25 +3502,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E38" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>134.7241225424365</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>402.9937101757981</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>290.9290925200442</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>21.98105529738169</v>
@@ -3553,25 +3553,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>96.39061873367314</v>
+        <v>33.88128987783369</v>
       </c>
       <c r="T38" t="n">
-        <v>212.77340246483</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="39">
@@ -3599,7 +3599,7 @@
         <v>105.0388331230853</v>
       </c>
       <c r="H39" t="n">
-        <v>61.52748067914077</v>
+        <v>61.52748067914111</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3647,7 +3647,7 @@
         <v>211.1008365810345</v>
       </c>
       <c r="X39" t="n">
-        <v>174.5627220424965</v>
+        <v>174.5627220424961</v>
       </c>
       <c r="Y39" t="n">
         <v>157.8079400398083</v>
@@ -3660,13 +3660,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>125.8364920689867</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C40" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E40" t="n">
         <v>159.3017069803637</v>
@@ -3681,7 +3681,7 @@
         <v>141.5417272291555</v>
       </c>
       <c r="I40" t="n">
-        <v>92.96130374789561</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>51.19554760057107</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>171.6505236560984</v>
@@ -3717,19 +3717,19 @@
         <v>233.9960562298768</v>
       </c>
       <c r="U40" t="n">
-        <v>279.9298613571687</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>192.7287153204088</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y40" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -3757,10 +3757,10 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>290.9290925200442</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>21.98105529738169</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3793,22 +3793,22 @@
         <v>96.39061873367314</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>212.77340246483</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>269.8371128263628</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X41" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y41" t="n">
-        <v>396.9273063213908</v>
+        <v>167.2771388771592</v>
       </c>
     </row>
     <row r="42">
@@ -3869,7 +3869,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>90.53889191283612</v>
+        <v>90.53889191283626</v>
       </c>
       <c r="T42" t="n">
         <v>154.1958715677298</v>
@@ -3897,22 +3897,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C43" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>69.21976477230228</v>
+        <v>98.83401175690854</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3957,7 +3957,7 @@
         <v>279.9298613571687</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W43" t="n">
         <v>276.2789678462144</v>
@@ -3976,25 +3976,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D44" t="n">
-        <v>299.7544938813013</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>225.779978149871</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G44" t="n">
         <v>402.9937101757981</v>
       </c>
       <c r="H44" t="n">
-        <v>290.9290925200442</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>21.98105529738169</v>
@@ -4030,10 +4030,10 @@
         <v>96.39061873367314</v>
       </c>
       <c r="T44" t="n">
-        <v>212.77340246483</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>254.3581035358611</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -4045,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4112,7 +4112,7 @@
         <v>154.1958715677298</v>
       </c>
       <c r="U45" t="n">
-        <v>195.3193173297612</v>
+        <v>195.3193173297609</v>
       </c>
       <c r="V45" t="n">
         <v>211.5744117368965</v>
@@ -4140,7 +4140,7 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D46" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4149,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>164.8389690906254</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4188,16 +4188,16 @@
         <v>171.6505236560984</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>233.9960562298768</v>
       </c>
       <c r="U46" t="n">
-        <v>192.5164886518388</v>
+        <v>279.9298613571687</v>
       </c>
       <c r="V46" t="n">
-        <v>271.1468876098733</v>
+        <v>219.0771556605743</v>
       </c>
       <c r="W46" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>235.9604235189134</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>38.82582963369487</v>
+        <v>1166.517402081457</v>
       </c>
       <c r="C2" t="n">
-        <v>31.21222238001735</v>
+        <v>1166.517402081457</v>
       </c>
       <c r="D2" t="n">
-        <v>31.21222238001735</v>
+        <v>772.4236851620456</v>
       </c>
       <c r="E2" t="n">
-        <v>31.21222238001735</v>
+        <v>772.4236851620456</v>
       </c>
       <c r="F2" t="n">
-        <v>31.21222238001735</v>
+        <v>378.3299682426345</v>
       </c>
       <c r="G2" t="n">
         <v>31.21222238001735</v>
@@ -4330,22 +4330,22 @@
         <v>31.21222238001735</v>
       </c>
       <c r="J2" t="n">
-        <v>31.21222238001735</v>
+        <v>285.3976938477716</v>
       </c>
       <c r="K2" t="n">
-        <v>31.21222238001735</v>
+        <v>285.3976938477716</v>
       </c>
       <c r="L2" t="n">
-        <v>417.4634743327321</v>
+        <v>285.3976938477716</v>
       </c>
       <c r="M2" t="n">
-        <v>803.7147262854468</v>
+        <v>671.6489458004863</v>
       </c>
       <c r="N2" t="n">
         <v>812.642214563296</v>
       </c>
       <c r="O2" t="n">
-        <v>812.642214563296</v>
+        <v>1198.893466516011</v>
       </c>
       <c r="P2" t="n">
         <v>1198.893466516011</v>
@@ -4366,16 +4366,16 @@
         <v>1560.611119000868</v>
       </c>
       <c r="V2" t="n">
-        <v>1210.773564337348</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="W2" t="n">
-        <v>827.0132634725169</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="X2" t="n">
-        <v>432.9195465531059</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="Y2" t="n">
-        <v>38.82582963369487</v>
+        <v>1166.517402081457</v>
       </c>
     </row>
     <row r="3">
@@ -4385,16 +4385,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>576.0479930154975</v>
+        <v>657.6955454205446</v>
       </c>
       <c r="C3" t="n">
-        <v>576.0479930154975</v>
+        <v>523.7004741694902</v>
       </c>
       <c r="D3" t="n">
-        <v>459.1508352348899</v>
+        <v>406.8033163888826</v>
       </c>
       <c r="E3" t="n">
-        <v>338.6580192272179</v>
+        <v>286.3105003812107</v>
       </c>
       <c r="F3" t="n">
         <v>229.6981394097224</v>
@@ -4412,25 +4412,25 @@
         <v>224.0250799426506</v>
       </c>
       <c r="K3" t="n">
-        <v>224.0250799426506</v>
+        <v>610.2763318953653</v>
       </c>
       <c r="L3" t="n">
-        <v>224.0250799426506</v>
+        <v>610.2763318953653</v>
       </c>
       <c r="M3" t="n">
-        <v>438.2641504114549</v>
+        <v>610.2763318953653</v>
       </c>
       <c r="N3" t="n">
-        <v>438.2641504114549</v>
+        <v>610.2763318953653</v>
       </c>
       <c r="O3" t="n">
-        <v>824.5154023641696</v>
+        <v>794.9558830015396</v>
       </c>
       <c r="P3" t="n">
-        <v>1210.766654316884</v>
+        <v>1181.207134954254</v>
       </c>
       <c r="Q3" t="n">
-        <v>1560.611119000868</v>
+        <v>1531.051599638238</v>
       </c>
       <c r="R3" t="n">
         <v>1560.611119000868</v>
@@ -4439,22 +4439,22 @@
         <v>1560.611119000868</v>
       </c>
       <c r="T3" t="n">
-        <v>1479.023662418999</v>
+        <v>1401.269255187876</v>
       </c>
       <c r="U3" t="n">
-        <v>1479.023662418999</v>
+        <v>1401.269255187876</v>
       </c>
       <c r="V3" t="n">
-        <v>1265.312135412033</v>
+        <v>1187.55772818091</v>
       </c>
       <c r="W3" t="n">
-        <v>1052.078967148361</v>
+        <v>974.3245599172384</v>
       </c>
       <c r="X3" t="n">
-        <v>875.7529852872541</v>
+        <v>797.9985780561312</v>
       </c>
       <c r="Y3" t="n">
-        <v>716.3510256510841</v>
+        <v>797.9985780561312</v>
       </c>
     </row>
     <row r="4">
@@ -4464,40 +4464,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1053.077272935756</v>
+        <v>695.0979269138468</v>
       </c>
       <c r="C4" t="n">
-        <v>881.9839004974729</v>
+        <v>524.0045544755633</v>
       </c>
       <c r="D4" t="n">
-        <v>722.4892558203828</v>
+        <v>524.0045544755633</v>
       </c>
       <c r="E4" t="n">
-        <v>561.5784406887024</v>
+        <v>363.0937393438827</v>
       </c>
       <c r="F4" t="n">
-        <v>396.9473147992936</v>
+        <v>198.4626134544739</v>
       </c>
       <c r="G4" t="n">
-        <v>297.1657234702345</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="H4" t="n">
-        <v>147.5582682756912</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="I4" t="n">
         <v>31.21222238001735</v>
       </c>
       <c r="J4" t="n">
-        <v>45.29477178522787</v>
+        <v>45.29477178522814</v>
       </c>
       <c r="K4" t="n">
-        <v>199.8470995074659</v>
+        <v>199.8470995074661</v>
       </c>
       <c r="L4" t="n">
-        <v>459.7441997875264</v>
+        <v>459.7441997875267</v>
       </c>
       <c r="M4" t="n">
-        <v>749.0082562280197</v>
+        <v>749.0082562280199</v>
       </c>
       <c r="N4" t="n">
         <v>1029.84703862227</v>
@@ -4515,25 +4515,25 @@
         <v>1560.611119000868</v>
       </c>
       <c r="S4" t="n">
-        <v>1560.611119000868</v>
+        <v>1374.219350880778</v>
       </c>
       <c r="T4" t="n">
-        <v>1560.611119000868</v>
+        <v>1374.219350880778</v>
       </c>
       <c r="U4" t="n">
-        <v>1277.812971546992</v>
+        <v>1091.421203426902</v>
       </c>
       <c r="V4" t="n">
-        <v>1277.812971546992</v>
+        <v>1091.421203426902</v>
       </c>
       <c r="W4" t="n">
-        <v>1277.812971546992</v>
+        <v>1091.421203426902</v>
       </c>
       <c r="X4" t="n">
-        <v>1277.812971546992</v>
+        <v>882.7976333078911</v>
       </c>
       <c r="Y4" t="n">
-        <v>1053.077272935756</v>
+        <v>882.7976333078911</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>459.1922881588969</v>
+        <v>347.7462876788858</v>
       </c>
       <c r="C5" t="n">
-        <v>459.1922881588969</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="D5" t="n">
-        <v>459.1922881588969</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="E5" t="n">
-        <v>459.1922881588969</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="F5" t="n">
-        <v>342.1207197522994</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="G5" t="n">
-        <v>342.1207197522994</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="H5" t="n">
         <v>31.21222238001735</v>
@@ -4570,49 +4570,49 @@
         <v>285.3976938477716</v>
       </c>
       <c r="K5" t="n">
-        <v>671.6489458004863</v>
+        <v>285.3976938477716</v>
       </c>
       <c r="L5" t="n">
-        <v>853.1988602528609</v>
+        <v>285.3976938477716</v>
       </c>
       <c r="M5" t="n">
-        <v>1239.450112205576</v>
+        <v>285.3976938477716</v>
       </c>
       <c r="N5" t="n">
-        <v>1239.450112205576</v>
+        <v>426.3909626105813</v>
       </c>
       <c r="O5" t="n">
-        <v>1239.450112205576</v>
+        <v>812.642214563296</v>
       </c>
       <c r="P5" t="n">
-        <v>1239.450112205576</v>
+        <v>1198.893466516011</v>
       </c>
       <c r="Q5" t="n">
-        <v>1560.611119000868</v>
+        <v>1520.054473311303</v>
       </c>
       <c r="R5" t="n">
         <v>1560.611119000868</v>
       </c>
       <c r="S5" t="n">
-        <v>1425.330043794968</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="T5" t="n">
-        <v>1203.123559741827</v>
+        <v>1338.404634947726</v>
       </c>
       <c r="U5" t="n">
-        <v>1203.123559741827</v>
+        <v>1081.344143207237</v>
       </c>
       <c r="V5" t="n">
-        <v>853.2860050783079</v>
+        <v>731.5065885437173</v>
       </c>
       <c r="W5" t="n">
-        <v>853.2860050783079</v>
+        <v>347.7462876788858</v>
       </c>
       <c r="X5" t="n">
-        <v>853.2860050783079</v>
+        <v>347.7462876788858</v>
       </c>
       <c r="Y5" t="n">
-        <v>853.2860050783079</v>
+        <v>347.7462876788858</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>689.2944728867919</v>
+        <v>710.0430642665517</v>
       </c>
       <c r="C6" t="n">
-        <v>555.2994016357376</v>
+        <v>576.0479930154975</v>
       </c>
       <c r="D6" t="n">
-        <v>438.40224385513</v>
+        <v>459.1508352348899</v>
       </c>
       <c r="E6" t="n">
-        <v>317.909427847458</v>
+        <v>338.6580192272179</v>
       </c>
       <c r="F6" t="n">
-        <v>208.9495480299626</v>
+        <v>229.6981394097224</v>
       </c>
       <c r="G6" t="n">
-        <v>101.9594353443013</v>
+        <v>122.7080267240611</v>
       </c>
       <c r="H6" t="n">
-        <v>31.21222238001735</v>
+        <v>51.96081375977718</v>
       </c>
       <c r="I6" t="n">
         <v>31.21222238001735</v>
       </c>
       <c r="J6" t="n">
-        <v>31.21222238001735</v>
+        <v>224.0250799426506</v>
       </c>
       <c r="K6" t="n">
-        <v>31.21222238001735</v>
+        <v>610.2763318953653</v>
       </c>
       <c r="L6" t="n">
-        <v>52.01289845874021</v>
+        <v>794.9558830015396</v>
       </c>
       <c r="M6" t="n">
-        <v>52.01289845874021</v>
+        <v>794.9558830015396</v>
       </c>
       <c r="N6" t="n">
-        <v>438.2641504114549</v>
+        <v>794.9558830015396</v>
       </c>
       <c r="O6" t="n">
-        <v>824.5154023641696</v>
+        <v>794.9558830015396</v>
       </c>
       <c r="P6" t="n">
-        <v>1210.766654316884</v>
+        <v>1181.207134954254</v>
       </c>
       <c r="Q6" t="n">
-        <v>1560.611119000868</v>
+        <v>1531.051599638238</v>
       </c>
       <c r="R6" t="n">
         <v>1560.611119000868</v>
       </c>
       <c r="S6" t="n">
-        <v>1538.378837839614</v>
+        <v>1452.621109115176</v>
       </c>
       <c r="T6" t="n">
-        <v>1379.036974026622</v>
+        <v>1293.279245302185</v>
       </c>
       <c r="U6" t="n">
-        <v>1379.036974026622</v>
+        <v>1293.279245302185</v>
       </c>
       <c r="V6" t="n">
-        <v>1165.325447019656</v>
+        <v>1293.279245302185</v>
       </c>
       <c r="W6" t="n">
-        <v>1165.325447019656</v>
+        <v>1186.074038399415</v>
       </c>
       <c r="X6" t="n">
-        <v>988.9994651585486</v>
+        <v>1009.748056538308</v>
       </c>
       <c r="Y6" t="n">
-        <v>829.5975055223786</v>
+        <v>850.3460969021384</v>
       </c>
     </row>
     <row r="7">
@@ -4701,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>464.4161145446911</v>
+        <v>147.5582682756912</v>
       </c>
       <c r="C7" t="n">
-        <v>464.4161145446911</v>
+        <v>147.5582682756912</v>
       </c>
       <c r="D7" t="n">
-        <v>464.4161145446911</v>
+        <v>147.5582682756912</v>
       </c>
       <c r="E7" t="n">
-        <v>464.4161145446911</v>
+        <v>147.5582682756912</v>
       </c>
       <c r="F7" t="n">
-        <v>464.4161145446911</v>
+        <v>147.5582682756912</v>
       </c>
       <c r="G7" t="n">
-        <v>297.1657234702345</v>
+        <v>147.5582682756912</v>
       </c>
       <c r="H7" t="n">
         <v>147.5582682756912</v>
@@ -4725,16 +4725,16 @@
         <v>31.21222238001735</v>
       </c>
       <c r="J7" t="n">
-        <v>45.29477178522814</v>
+        <v>45.29477178522787</v>
       </c>
       <c r="K7" t="n">
-        <v>199.8470995074661</v>
+        <v>199.8470995074659</v>
       </c>
       <c r="L7" t="n">
-        <v>459.7441997875267</v>
+        <v>459.7441997875264</v>
       </c>
       <c r="M7" t="n">
-        <v>749.0082562280199</v>
+        <v>749.0082562280197</v>
       </c>
       <c r="N7" t="n">
         <v>1029.84703862227</v>
@@ -4749,28 +4749,28 @@
         <v>1560.611119000868</v>
       </c>
       <c r="R7" t="n">
-        <v>1560.611119000868</v>
+        <v>1475.338400676267</v>
       </c>
       <c r="S7" t="n">
-        <v>1374.219350880778</v>
+        <v>1475.338400676267</v>
       </c>
       <c r="T7" t="n">
-        <v>1134.67061185748</v>
+        <v>1235.789661652969</v>
       </c>
       <c r="U7" t="n">
-        <v>851.872464403604</v>
+        <v>952.9915141990934</v>
       </c>
       <c r="V7" t="n">
-        <v>577.986719343126</v>
+        <v>679.1057691386154</v>
       </c>
       <c r="W7" t="n">
-        <v>577.986719343126</v>
+        <v>400.0361046474898</v>
       </c>
       <c r="X7" t="n">
-        <v>577.986719343126</v>
+        <v>161.6922425071731</v>
       </c>
       <c r="Y7" t="n">
-        <v>577.986719343126</v>
+        <v>147.5582682756912</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1213.49337313825</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="C8" t="n">
-        <v>1213.49337313825</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="D8" t="n">
-        <v>819.3996562188394</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="E8" t="n">
-        <v>819.3996562188394</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="F8" t="n">
-        <v>425.3059392994284</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="G8" t="n">
         <v>31.21222238001735</v>
@@ -4804,22 +4804,22 @@
         <v>31.21222238001735</v>
       </c>
       <c r="J8" t="n">
-        <v>31.21222238001735</v>
+        <v>285.3976938477716</v>
       </c>
       <c r="K8" t="n">
-        <v>417.4634743327321</v>
+        <v>671.6489458004863</v>
       </c>
       <c r="L8" t="n">
-        <v>417.4634743327321</v>
+        <v>747.5519694058733</v>
       </c>
       <c r="M8" t="n">
-        <v>803.7147262854468</v>
+        <v>1133.803221358588</v>
       </c>
       <c r="N8" t="n">
-        <v>803.7147262854468</v>
+        <v>1520.054473311303</v>
       </c>
       <c r="O8" t="n">
-        <v>1133.803221358588</v>
+        <v>1520.054473311303</v>
       </c>
       <c r="P8" t="n">
         <v>1520.054473311303</v>
@@ -4831,25 +4831,25 @@
         <v>1560.611119000868</v>
       </c>
       <c r="S8" t="n">
-        <v>1560.611119000868</v>
+        <v>1425.330043794968</v>
       </c>
       <c r="T8" t="n">
-        <v>1560.611119000868</v>
+        <v>1425.330043794968</v>
       </c>
       <c r="U8" t="n">
-        <v>1560.611119000868</v>
+        <v>1425.330043794968</v>
       </c>
       <c r="V8" t="n">
-        <v>1560.611119000868</v>
+        <v>1425.330043794968</v>
       </c>
       <c r="W8" t="n">
-        <v>1560.611119000868</v>
+        <v>1041.569742930137</v>
       </c>
       <c r="X8" t="n">
-        <v>1213.49337313825</v>
+        <v>647.4760260107259</v>
       </c>
       <c r="Y8" t="n">
-        <v>1213.49337313825</v>
+        <v>253.3823090913149</v>
       </c>
     </row>
     <row r="9">
@@ -4859,22 +4859,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>465.407202420523</v>
+        <v>192.9527650369019</v>
       </c>
       <c r="C9" t="n">
-        <v>331.4121311694687</v>
+        <v>151.7050383876894</v>
       </c>
       <c r="D9" t="n">
-        <v>331.4121311694687</v>
+        <v>151.7050383876894</v>
       </c>
       <c r="E9" t="n">
-        <v>210.9193151617967</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="F9" t="n">
-        <v>101.9594353443013</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="G9" t="n">
-        <v>101.9594353443013</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="H9" t="n">
         <v>31.21222238001735</v>
@@ -4886,49 +4886,49 @@
         <v>224.0250799426506</v>
       </c>
       <c r="K9" t="n">
-        <v>438.2641504114549</v>
+        <v>408.7046310488249</v>
       </c>
       <c r="L9" t="n">
-        <v>438.2641504114549</v>
+        <v>794.9558830015396</v>
       </c>
       <c r="M9" t="n">
-        <v>824.5154023641696</v>
+        <v>794.9558830015396</v>
       </c>
       <c r="N9" t="n">
-        <v>824.5154023641696</v>
+        <v>794.9558830015396</v>
       </c>
       <c r="O9" t="n">
-        <v>824.5154023641696</v>
+        <v>794.9558830015396</v>
       </c>
       <c r="P9" t="n">
-        <v>1210.766654316884</v>
+        <v>1181.207134954254</v>
       </c>
       <c r="Q9" t="n">
-        <v>1560.611119000868</v>
+        <v>1531.051599638238</v>
       </c>
       <c r="R9" t="n">
         <v>1560.611119000868</v>
       </c>
       <c r="S9" t="n">
-        <v>1560.611119000868</v>
+        <v>1452.621109115176</v>
       </c>
       <c r="T9" t="n">
-        <v>1560.611119000868</v>
+        <v>1293.279245302185</v>
       </c>
       <c r="U9" t="n">
-        <v>1363.260308139086</v>
+        <v>1095.928434440403</v>
       </c>
       <c r="V9" t="n">
-        <v>1149.54878113212</v>
+        <v>882.216907433437</v>
       </c>
       <c r="W9" t="n">
-        <v>941.4381765533869</v>
+        <v>668.9837391697657</v>
       </c>
       <c r="X9" t="n">
-        <v>765.1121946922797</v>
+        <v>492.6577573086585</v>
       </c>
       <c r="Y9" t="n">
-        <v>605.7102350561097</v>
+        <v>333.2557976724885</v>
       </c>
     </row>
     <row r="10">
@@ -4938,40 +4938,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>949.4527002428704</v>
+        <v>617.2570852260376</v>
       </c>
       <c r="C10" t="n">
-        <v>949.4527002428704</v>
+        <v>446.1637127877541</v>
       </c>
       <c r="D10" t="n">
-        <v>789.9580555657803</v>
+        <v>286.6690681106641</v>
       </c>
       <c r="E10" t="n">
-        <v>629.0472404340999</v>
+        <v>125.7582529789836</v>
       </c>
       <c r="F10" t="n">
-        <v>464.4161145446911</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="G10" t="n">
-        <v>297.1657234702345</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="H10" t="n">
-        <v>147.5582682756912</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="I10" t="n">
-        <v>31.21222238001735</v>
+        <v>31.21222238001761</v>
       </c>
       <c r="J10" t="n">
-        <v>45.29477178522787</v>
+        <v>45.29477178522814</v>
       </c>
       <c r="K10" t="n">
-        <v>199.8470995074659</v>
+        <v>199.8470995074661</v>
       </c>
       <c r="L10" t="n">
-        <v>459.7441997875264</v>
+        <v>459.7441997875267</v>
       </c>
       <c r="M10" t="n">
-        <v>749.0082562280197</v>
+        <v>749.0082562280199</v>
       </c>
       <c r="N10" t="n">
         <v>1029.84703862227</v>
@@ -4992,22 +4992,22 @@
         <v>1374.219350880778</v>
       </c>
       <c r="T10" t="n">
-        <v>1223.338445303348</v>
+        <v>1134.67061185748</v>
       </c>
       <c r="U10" t="n">
-        <v>1223.338445303348</v>
+        <v>1134.67061185748</v>
       </c>
       <c r="V10" t="n">
-        <v>949.4527002428704</v>
+        <v>1134.67061185748</v>
       </c>
       <c r="W10" t="n">
-        <v>949.4527002428704</v>
+        <v>855.6009473663541</v>
       </c>
       <c r="X10" t="n">
-        <v>949.4527002428704</v>
+        <v>617.2570852260376</v>
       </c>
       <c r="Y10" t="n">
-        <v>949.4527002428704</v>
+        <v>617.2570852260376</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1242.823078252663</v>
+        <v>1323.874270851438</v>
       </c>
       <c r="C11" t="n">
-        <v>832.6984875659331</v>
+        <v>1323.874270851438</v>
       </c>
       <c r="D11" t="n">
-        <v>428.2345576589936</v>
+        <v>919.4103409444986</v>
       </c>
       <c r="E11" t="n">
-        <v>40.73609117563968</v>
+        <v>891.0339430938509</v>
       </c>
       <c r="F11" t="n">
-        <v>40.73609117563968</v>
+        <v>470.0035310475384</v>
       </c>
       <c r="G11" t="n">
-        <v>40.73609117563968</v>
+        <v>62.93917733461107</v>
       </c>
       <c r="H11" t="n">
-        <v>40.73609117563968</v>
+        <v>62.93917733461107</v>
       </c>
       <c r="I11" t="n">
-        <v>40.73609117563968</v>
+        <v>40.73609117563967</v>
       </c>
       <c r="J11" t="n">
-        <v>106.5593902090978</v>
+        <v>433.3352170968269</v>
       </c>
       <c r="K11" t="n">
-        <v>225.7605524198394</v>
+        <v>552.5363793075685</v>
       </c>
       <c r="L11" t="n">
-        <v>388.5853481825117</v>
+        <v>715.3611750702407</v>
       </c>
       <c r="M11" t="n">
-        <v>678.6129259256311</v>
+        <v>909.3612555004715</v>
       </c>
       <c r="N11" t="n">
-        <v>877.62072287149</v>
+        <v>1108.36905244633</v>
       </c>
       <c r="O11" t="n">
-        <v>1381.729851170031</v>
+        <v>1290.885691100357</v>
       </c>
       <c r="P11" t="n">
-        <v>1523.530674241692</v>
+        <v>1432.686514172018</v>
       </c>
       <c r="Q11" t="n">
-        <v>2020.801697707134</v>
+        <v>1893.806030630993</v>
       </c>
       <c r="R11" t="n">
         <v>2036.804558781984</v>
       </c>
       <c r="S11" t="n">
-        <v>2036.804558781984</v>
+        <v>1939.440297434839</v>
       </c>
       <c r="T11" t="n">
-        <v>2036.804558781984</v>
+        <v>1724.517668682485</v>
       </c>
       <c r="U11" t="n">
-        <v>2036.804558781984</v>
+        <v>1724.517668682485</v>
       </c>
       <c r="V11" t="n">
-        <v>2036.804558781984</v>
+        <v>1724.517668682485</v>
       </c>
       <c r="W11" t="n">
-        <v>1653.044257917152</v>
+        <v>1724.517668682485</v>
       </c>
       <c r="X11" t="n">
-        <v>1653.044257917152</v>
+        <v>1323.874270851438</v>
       </c>
       <c r="Y11" t="n">
-        <v>1653.044257917152</v>
+        <v>1323.874270851438</v>
       </c>
     </row>
     <row r="12">
@@ -5096,52 +5096,52 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>689.3298178528994</v>
+        <v>689.3298178528997</v>
       </c>
       <c r="C12" t="n">
-        <v>555.334746601845</v>
+        <v>555.3347466018454</v>
       </c>
       <c r="D12" t="n">
-        <v>438.4375888212375</v>
+        <v>438.4375888212378</v>
       </c>
       <c r="E12" t="n">
-        <v>317.9447728135655</v>
+        <v>317.9447728135658</v>
       </c>
       <c r="F12" t="n">
-        <v>208.9848929960701</v>
+        <v>208.9848929960704</v>
       </c>
       <c r="G12" t="n">
-        <v>102.8850615586102</v>
+        <v>102.8850615586105</v>
       </c>
       <c r="H12" t="n">
-        <v>40.73609117563968</v>
+        <v>40.73609117563967</v>
       </c>
       <c r="I12" t="n">
-        <v>40.73609117563968</v>
+        <v>50.44264462921938</v>
       </c>
       <c r="J12" t="n">
-        <v>72.31876912764346</v>
+        <v>325.6937265558564</v>
       </c>
       <c r="K12" t="n">
-        <v>157.9513001761445</v>
+        <v>756.2254710607475</v>
       </c>
       <c r="L12" t="n">
-        <v>291.8554350493911</v>
+        <v>890.1296059339941</v>
       </c>
       <c r="M12" t="n">
-        <v>455.9547762062242</v>
+        <v>1054.228947090827</v>
       </c>
       <c r="N12" t="n">
-        <v>630.232839821527</v>
+        <v>1228.50701070613</v>
       </c>
       <c r="O12" t="n">
-        <v>1071.468853460665</v>
+        <v>1378.938373875273</v>
       </c>
       <c r="P12" t="n">
-        <v>1575.577981759206</v>
+        <v>1491.842913253229</v>
       </c>
       <c r="Q12" t="n">
-        <v>2036.804558781984</v>
+        <v>1953.069490276007</v>
       </c>
       <c r="R12" t="n">
         <v>2036.804558781984</v>
@@ -5159,13 +5159,13 @@
         <v>1378.593960249435</v>
       </c>
       <c r="W12" t="n">
-        <v>1165.360791985763</v>
+        <v>1165.360791985764</v>
       </c>
       <c r="X12" t="n">
-        <v>989.034810124656</v>
+        <v>989.0348101246564</v>
       </c>
       <c r="Y12" t="n">
-        <v>829.632850488486</v>
+        <v>829.6328504884864</v>
       </c>
     </row>
     <row r="13">
@@ -5175,37 +5175,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>276.5554583336614</v>
+        <v>1100.24180695622</v>
       </c>
       <c r="C13" t="n">
-        <v>276.5554583336614</v>
+        <v>929.1484345179367</v>
       </c>
       <c r="D13" t="n">
-        <v>276.5554583336614</v>
+        <v>769.6537898408467</v>
       </c>
       <c r="E13" t="n">
-        <v>134.6363979916959</v>
+        <v>608.7429747091662</v>
       </c>
       <c r="F13" t="n">
-        <v>134.6363979916959</v>
+        <v>444.1118488197575</v>
       </c>
       <c r="G13" t="n">
-        <v>134.6363979916959</v>
+        <v>277.6078396373075</v>
       </c>
       <c r="H13" t="n">
-        <v>134.6363979916959</v>
+        <v>134.6363979916958</v>
       </c>
       <c r="I13" t="n">
-        <v>40.73609117563968</v>
+        <v>40.73609117563967</v>
       </c>
       <c r="J13" t="n">
         <v>106.5377332703983</v>
       </c>
       <c r="K13" t="n">
-        <v>139.8002241733391</v>
+        <v>139.800224173339</v>
       </c>
       <c r="L13" t="n">
-        <v>508.4557199587192</v>
+        <v>508.4557199587191</v>
       </c>
       <c r="M13" t="n">
         <v>912.3902554072974</v>
@@ -5214,37 +5214,37 @@
         <v>1305.172909119943</v>
       </c>
       <c r="O13" t="n">
-        <v>1615.870424989964</v>
+        <v>1668.131803249567</v>
       </c>
       <c r="P13" t="n">
-        <v>1910.02095963867</v>
+        <v>1962.282337898273</v>
       </c>
       <c r="Q13" t="n">
         <v>2036.804558781984</v>
       </c>
       <c r="R13" t="n">
-        <v>1985.091884437973</v>
+        <v>2036.804558781984</v>
       </c>
       <c r="S13" t="n">
-        <v>1811.70751710858</v>
+        <v>1863.420191452591</v>
       </c>
       <c r="T13" t="n">
-        <v>1575.347864351129</v>
+        <v>1627.06053869514</v>
       </c>
       <c r="U13" t="n">
-        <v>1292.590428636817</v>
+        <v>1627.06053869514</v>
       </c>
       <c r="V13" t="n">
-        <v>1018.704683576339</v>
+        <v>1526.285375490581</v>
       </c>
       <c r="W13" t="n">
-        <v>739.6350190852133</v>
+        <v>1526.285375490581</v>
       </c>
       <c r="X13" t="n">
-        <v>501.2911569448967</v>
+        <v>1287.941513350265</v>
       </c>
       <c r="Y13" t="n">
-        <v>276.5554583336614</v>
+        <v>1287.941513350265</v>
       </c>
     </row>
     <row r="14">
@@ -5254,16 +5254,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2036.804558781984</v>
+        <v>763.8713012698054</v>
       </c>
       <c r="C14" t="n">
-        <v>2003.705858706161</v>
+        <v>763.8713012698054</v>
       </c>
       <c r="D14" t="n">
-        <v>1599.241928799221</v>
+        <v>763.8713012698054</v>
       </c>
       <c r="E14" t="n">
-        <v>1184.901713316118</v>
+        <v>763.8713012698054</v>
       </c>
       <c r="F14" t="n">
         <v>763.8713012698054</v>
@@ -5272,19 +5272,19 @@
         <v>356.806947556878</v>
       </c>
       <c r="H14" t="n">
-        <v>62.93917733461108</v>
+        <v>62.93917733461107</v>
       </c>
       <c r="I14" t="n">
-        <v>40.73609117563968</v>
+        <v>40.73609117563967</v>
       </c>
       <c r="J14" t="n">
-        <v>106.5593902090978</v>
+        <v>106.5593902090977</v>
       </c>
       <c r="K14" t="n">
         <v>610.6685185076387</v>
       </c>
       <c r="L14" t="n">
-        <v>806.2053351399143</v>
+        <v>806.205335139914</v>
       </c>
       <c r="M14" t="n">
         <v>1000.205415570145</v>
@@ -5305,25 +5305,25 @@
         <v>2036.804558781984</v>
       </c>
       <c r="S14" t="n">
-        <v>2036.804558781984</v>
+        <v>1939.440297434839</v>
       </c>
       <c r="T14" t="n">
-        <v>2036.804558781984</v>
+        <v>1724.517668682485</v>
       </c>
       <c r="U14" t="n">
-        <v>2036.804558781984</v>
+        <v>1724.517668682485</v>
       </c>
       <c r="V14" t="n">
-        <v>2036.804558781984</v>
+        <v>1374.680114018966</v>
       </c>
       <c r="W14" t="n">
-        <v>2036.804558781984</v>
+        <v>990.9198131541348</v>
       </c>
       <c r="X14" t="n">
-        <v>2036.804558781984</v>
+        <v>763.8713012698054</v>
       </c>
       <c r="Y14" t="n">
-        <v>2036.804558781984</v>
+        <v>763.8713012698054</v>
       </c>
     </row>
     <row r="15">
@@ -5345,46 +5345,46 @@
         <v>317.9447728135655</v>
       </c>
       <c r="F15" t="n">
-        <v>208.9848929960701</v>
+        <v>208.98489299607</v>
       </c>
       <c r="G15" t="n">
-        <v>102.8850615586102</v>
+        <v>102.8850615586101</v>
       </c>
       <c r="H15" t="n">
-        <v>40.73609117563968</v>
+        <v>40.73609117563967</v>
       </c>
       <c r="I15" t="n">
-        <v>40.73609117563968</v>
+        <v>50.44264462921938</v>
       </c>
       <c r="J15" t="n">
-        <v>315.9871731022767</v>
+        <v>325.6937265558564</v>
       </c>
       <c r="K15" t="n">
-        <v>401.6197041507777</v>
+        <v>829.8028548543973</v>
       </c>
       <c r="L15" t="n">
-        <v>905.7288324493188</v>
+        <v>1296.099762937768</v>
       </c>
       <c r="M15" t="n">
-        <v>1137.964015596804</v>
+        <v>1460.199104094601</v>
       </c>
       <c r="N15" t="n">
-        <v>1312.242079212107</v>
+        <v>1634.477167709904</v>
       </c>
       <c r="O15" t="n">
-        <v>1462.67344238125</v>
+        <v>1784.908530879047</v>
       </c>
       <c r="P15" t="n">
-        <v>1575.577981759206</v>
+        <v>1897.813070257003</v>
       </c>
       <c r="Q15" t="n">
-        <v>2036.804558781984</v>
+        <v>1953.069490276007</v>
       </c>
       <c r="R15" t="n">
         <v>2036.804558781984</v>
       </c>
       <c r="S15" t="n">
-        <v>1945.351132607402</v>
+        <v>1945.351132607401</v>
       </c>
       <c r="T15" t="n">
         <v>1789.597726983432</v>
@@ -5396,10 +5396,10 @@
         <v>1378.593960249435</v>
       </c>
       <c r="W15" t="n">
-        <v>1165.360791985764</v>
+        <v>1165.360791985763</v>
       </c>
       <c r="X15" t="n">
-        <v>989.0348101246564</v>
+        <v>989.034810124656</v>
       </c>
       <c r="Y15" t="n">
         <v>829.632850488486</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1100.24180695622</v>
+        <v>262.2401192690091</v>
       </c>
       <c r="C16" t="n">
-        <v>929.1484345179367</v>
+        <v>262.2401192690091</v>
       </c>
       <c r="D16" t="n">
-        <v>769.6537898408467</v>
+        <v>262.2401192690091</v>
       </c>
       <c r="E16" t="n">
-        <v>608.7429747091662</v>
+        <v>134.6363979916958</v>
       </c>
       <c r="F16" t="n">
-        <v>444.1118488197575</v>
+        <v>134.6363979916958</v>
       </c>
       <c r="G16" t="n">
-        <v>277.6078396373075</v>
+        <v>134.6363979916958</v>
       </c>
       <c r="H16" t="n">
-        <v>134.6363979916959</v>
+        <v>134.6363979916958</v>
       </c>
       <c r="I16" t="n">
-        <v>40.73609117563968</v>
+        <v>40.73609117563967</v>
       </c>
       <c r="J16" t="n">
-        <v>41.5363696390619</v>
+        <v>106.5377332703983</v>
       </c>
       <c r="K16" t="n">
-        <v>281.0790541277168</v>
+        <v>346.0804177590531</v>
       </c>
       <c r="L16" t="n">
-        <v>649.7345499130969</v>
+        <v>714.7359135444333</v>
       </c>
       <c r="M16" t="n">
-        <v>1053.669085361675</v>
+        <v>1118.670448993012</v>
       </c>
       <c r="N16" t="n">
-        <v>1446.451739074321</v>
+        <v>1252.91153086034</v>
       </c>
       <c r="O16" t="n">
         <v>1615.870424989964</v>
       </c>
       <c r="P16" t="n">
-        <v>1910.02095963867</v>
+        <v>1910.020959638669</v>
       </c>
       <c r="Q16" t="n">
         <v>2036.804558781984</v>
       </c>
       <c r="R16" t="n">
-        <v>1985.091884437973</v>
+        <v>1985.091884437972</v>
       </c>
       <c r="S16" t="n">
-        <v>1849.768613555702</v>
+        <v>1985.091884437972</v>
       </c>
       <c r="T16" t="n">
-        <v>1849.768613555702</v>
+        <v>1748.732231680521</v>
       </c>
       <c r="U16" t="n">
-        <v>1567.01117784139</v>
+        <v>1465.974795966209</v>
       </c>
       <c r="V16" t="n">
-        <v>1567.01117784139</v>
+        <v>1192.089050905731</v>
       </c>
       <c r="W16" t="n">
-        <v>1287.941513350265</v>
+        <v>913.0193864146054</v>
       </c>
       <c r="X16" t="n">
-        <v>1287.941513350265</v>
+        <v>674.6755242742888</v>
       </c>
       <c r="Y16" t="n">
-        <v>1287.941513350265</v>
+        <v>449.9398256630535</v>
       </c>
     </row>
     <row r="17">
@@ -5491,16 +5491,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2003.705858706161</v>
+        <v>1173.995891956535</v>
       </c>
       <c r="C17" t="n">
-        <v>2003.705858706161</v>
+        <v>763.8713012698054</v>
       </c>
       <c r="D17" t="n">
-        <v>1599.241928799221</v>
+        <v>763.8713012698054</v>
       </c>
       <c r="E17" t="n">
-        <v>1184.901713316118</v>
+        <v>763.8713012698054</v>
       </c>
       <c r="F17" t="n">
         <v>763.8713012698054</v>
@@ -5533,34 +5533,34 @@
         <v>1290.885691100357</v>
       </c>
       <c r="P17" t="n">
-        <v>1794.994819398898</v>
+        <v>1432.686514172018</v>
       </c>
       <c r="Q17" t="n">
-        <v>2020.801697707134</v>
+        <v>1893.806030630993</v>
       </c>
       <c r="R17" t="n">
         <v>2036.804558781984</v>
       </c>
       <c r="S17" t="n">
-        <v>2036.804558781984</v>
+        <v>1939.440297434839</v>
       </c>
       <c r="T17" t="n">
-        <v>2036.804558781984</v>
+        <v>1939.440297434839</v>
       </c>
       <c r="U17" t="n">
-        <v>2036.804558781984</v>
+        <v>1939.440297434839</v>
       </c>
       <c r="V17" t="n">
-        <v>2036.804558781984</v>
+        <v>1589.60274277132</v>
       </c>
       <c r="W17" t="n">
-        <v>2036.804558781984</v>
+        <v>1205.842441906488</v>
       </c>
       <c r="X17" t="n">
-        <v>2036.804558781984</v>
+        <v>1173.995891956535</v>
       </c>
       <c r="Y17" t="n">
-        <v>2003.705858706161</v>
+        <v>1173.995891956535</v>
       </c>
     </row>
     <row r="18">
@@ -5579,13 +5579,13 @@
         <v>438.4375888212378</v>
       </c>
       <c r="E18" t="n">
-        <v>317.9447728135655</v>
+        <v>317.9447728135658</v>
       </c>
       <c r="F18" t="n">
-        <v>208.98489299607</v>
+        <v>208.9848929960704</v>
       </c>
       <c r="G18" t="n">
-        <v>102.8850615586101</v>
+        <v>102.8850615586105</v>
       </c>
       <c r="H18" t="n">
         <v>40.73609117563967</v>
@@ -5594,13 +5594,13 @@
         <v>50.44264462921938</v>
       </c>
       <c r="J18" t="n">
-        <v>82.02532258122318</v>
+        <v>325.6937265558564</v>
       </c>
       <c r="K18" t="n">
-        <v>167.6578536297242</v>
+        <v>756.2254710607475</v>
       </c>
       <c r="L18" t="n">
-        <v>550.1198187922862</v>
+        <v>890.1296059339941</v>
       </c>
       <c r="M18" t="n">
         <v>1054.228947090827</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>768.2376193862563</v>
+        <v>262.2401192690091</v>
       </c>
       <c r="C19" t="n">
-        <v>768.2376193862563</v>
+        <v>91.14674683072565</v>
       </c>
       <c r="D19" t="n">
-        <v>608.7429747091662</v>
+        <v>91.14674683072565</v>
       </c>
       <c r="E19" t="n">
-        <v>608.7429747091662</v>
+        <v>91.14674683072565</v>
       </c>
       <c r="F19" t="n">
-        <v>444.1118488197575</v>
+        <v>91.14674683072565</v>
       </c>
       <c r="G19" t="n">
-        <v>277.6078396373075</v>
+        <v>91.14674683072565</v>
       </c>
       <c r="H19" t="n">
-        <v>134.6363979916958</v>
+        <v>91.14674683072565</v>
       </c>
       <c r="I19" t="n">
         <v>40.73609117563967</v>
@@ -5703,22 +5703,22 @@
         <v>1985.091884437972</v>
       </c>
       <c r="T19" t="n">
-        <v>1985.091884437972</v>
+        <v>1748.732231680521</v>
       </c>
       <c r="U19" t="n">
-        <v>1702.33444872366</v>
+        <v>1465.974795966209</v>
       </c>
       <c r="V19" t="n">
-        <v>1428.448703663182</v>
+        <v>1192.089050905731</v>
       </c>
       <c r="W19" t="n">
-        <v>1149.379039172057</v>
+        <v>913.0193864146054</v>
       </c>
       <c r="X19" t="n">
-        <v>955.9373257803006</v>
+        <v>674.6755242742888</v>
       </c>
       <c r="Y19" t="n">
-        <v>955.9373257803006</v>
+        <v>449.9398256630535</v>
       </c>
     </row>
     <row r="20">
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1724.517668682485</v>
+        <v>1308.434395550757</v>
       </c>
       <c r="C20" t="n">
-        <v>1724.517668682485</v>
+        <v>898.3098048640268</v>
       </c>
       <c r="D20" t="n">
-        <v>1320.053738775546</v>
+        <v>898.3098048640268</v>
       </c>
       <c r="E20" t="n">
-        <v>1184.901713316118</v>
+        <v>483.9695893809235</v>
       </c>
       <c r="F20" t="n">
-        <v>763.8713012698054</v>
+        <v>62.93917733461107</v>
       </c>
       <c r="G20" t="n">
-        <v>356.806947556878</v>
+        <v>62.93917733461107</v>
       </c>
       <c r="H20" t="n">
         <v>62.93917733461107</v>
@@ -5752,28 +5752,28 @@
         <v>40.73609117563967</v>
       </c>
       <c r="J20" t="n">
-        <v>106.5593902090977</v>
+        <v>433.3352170968269</v>
       </c>
       <c r="K20" t="n">
-        <v>225.7605524198393</v>
+        <v>552.5363793075685</v>
       </c>
       <c r="L20" t="n">
-        <v>388.5853481825116</v>
+        <v>715.3611750702407</v>
       </c>
       <c r="M20" t="n">
-        <v>695.1040842174627</v>
+        <v>909.3612555004715</v>
       </c>
       <c r="N20" t="n">
-        <v>1199.213212516004</v>
+        <v>1108.36905244633</v>
       </c>
       <c r="O20" t="n">
-        <v>1381.729851170031</v>
+        <v>1290.885691100357</v>
       </c>
       <c r="P20" t="n">
-        <v>1523.530674241692</v>
+        <v>1432.686514172018</v>
       </c>
       <c r="Q20" t="n">
-        <v>2020.801697707134</v>
+        <v>1893.806030630993</v>
       </c>
       <c r="R20" t="n">
         <v>2036.804558781984</v>
@@ -5782,22 +5782,22 @@
         <v>1939.440297434839</v>
       </c>
       <c r="T20" t="n">
-        <v>1724.517668682485</v>
+        <v>1939.440297434839</v>
       </c>
       <c r="U20" t="n">
-        <v>1724.517668682485</v>
+        <v>1939.440297434839</v>
       </c>
       <c r="V20" t="n">
-        <v>1724.517668682485</v>
+        <v>1939.440297434839</v>
       </c>
       <c r="W20" t="n">
-        <v>1724.517668682485</v>
+        <v>1939.440297434839</v>
       </c>
       <c r="X20" t="n">
-        <v>1724.517668682485</v>
+        <v>1939.440297434839</v>
       </c>
       <c r="Y20" t="n">
-        <v>1724.517668682485</v>
+        <v>1718.655575215246</v>
       </c>
     </row>
     <row r="21">
@@ -5813,13 +5813,13 @@
         <v>555.334746601845</v>
       </c>
       <c r="D21" t="n">
-        <v>438.4375888212376</v>
+        <v>438.4375888212373</v>
       </c>
       <c r="E21" t="n">
-        <v>317.9447728135656</v>
+        <v>317.9447728135654</v>
       </c>
       <c r="F21" t="n">
-        <v>208.9848929960701</v>
+        <v>208.9848929960699</v>
       </c>
       <c r="G21" t="n">
         <v>102.8850615586101</v>
@@ -5828,31 +5828,31 @@
         <v>40.73609117563967</v>
       </c>
       <c r="I21" t="n">
-        <v>40.73609117563967</v>
+        <v>50.44264462921938</v>
       </c>
       <c r="J21" t="n">
-        <v>72.31876912764346</v>
+        <v>325.6937265558564</v>
       </c>
       <c r="K21" t="n">
-        <v>576.4278974261845</v>
+        <v>411.3262576043575</v>
       </c>
       <c r="L21" t="n">
-        <v>973.8646744399709</v>
+        <v>545.230392477604</v>
       </c>
       <c r="M21" t="n">
-        <v>1137.964015596804</v>
+        <v>709.3297336344372</v>
       </c>
       <c r="N21" t="n">
-        <v>1312.242079212107</v>
+        <v>883.6077972497401</v>
       </c>
       <c r="O21" t="n">
-        <v>1462.67344238125</v>
+        <v>1034.039160418883</v>
       </c>
       <c r="P21" t="n">
-        <v>1575.577981759206</v>
+        <v>1491.842913253229</v>
       </c>
       <c r="Q21" t="n">
-        <v>2036.804558781984</v>
+        <v>1953.069490276007</v>
       </c>
       <c r="R21" t="n">
         <v>2036.804558781984</v>
@@ -5867,7 +5867,7 @@
         <v>1592.305487256401</v>
       </c>
       <c r="V21" t="n">
-        <v>1378.593960249435</v>
+        <v>1378.593960249434</v>
       </c>
       <c r="W21" t="n">
         <v>1165.360791985763</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>645.4989327144068</v>
+        <v>350.2115420037013</v>
       </c>
       <c r="C22" t="n">
-        <v>474.4055602761233</v>
+        <v>350.2115420037013</v>
       </c>
       <c r="D22" t="n">
-        <v>314.9109155990333</v>
+        <v>350.2115420037013</v>
       </c>
       <c r="E22" t="n">
-        <v>154.0001004673528</v>
+        <v>350.2115420037013</v>
       </c>
       <c r="F22" t="n">
-        <v>154.0001004673528</v>
+        <v>350.2115420037013</v>
       </c>
       <c r="G22" t="n">
-        <v>40.73609117563967</v>
+        <v>183.7075328212513</v>
       </c>
       <c r="H22" t="n">
         <v>40.73609117563967</v>
@@ -5910,52 +5910,52 @@
         <v>40.73609117563967</v>
       </c>
       <c r="J22" t="n">
-        <v>41.5363696390619</v>
+        <v>106.5377332703983</v>
       </c>
       <c r="K22" t="n">
-        <v>281.0790541277168</v>
+        <v>346.0804177590531</v>
       </c>
       <c r="L22" t="n">
-        <v>649.7345499130969</v>
+        <v>714.7359135444333</v>
       </c>
       <c r="M22" t="n">
-        <v>1053.669085361675</v>
+        <v>860.1288771476941</v>
       </c>
       <c r="N22" t="n">
-        <v>1446.451739074321</v>
+        <v>1252.91153086034</v>
       </c>
       <c r="O22" t="n">
-        <v>1809.410633203945</v>
+        <v>1615.870424989964</v>
       </c>
       <c r="P22" t="n">
-        <v>2036.294919844506</v>
+        <v>1910.020959638669</v>
       </c>
       <c r="Q22" t="n">
         <v>2036.804558781984</v>
       </c>
       <c r="R22" t="n">
-        <v>1985.091884437972</v>
+        <v>2036.804558781984</v>
       </c>
       <c r="S22" t="n">
-        <v>1811.70751710858</v>
+        <v>2036.804558781984</v>
       </c>
       <c r="T22" t="n">
-        <v>1575.347864351129</v>
+        <v>1800.444906024532</v>
       </c>
       <c r="U22" t="n">
-        <v>1575.347864351129</v>
+        <v>1517.68747031022</v>
       </c>
       <c r="V22" t="n">
-        <v>1575.347864351129</v>
+        <v>1243.801725249742</v>
       </c>
       <c r="W22" t="n">
-        <v>1296.278199860003</v>
+        <v>964.7320607586166</v>
       </c>
       <c r="X22" t="n">
-        <v>1057.934337719686</v>
+        <v>726.3881986183001</v>
       </c>
       <c r="Y22" t="n">
-        <v>833.1986391084512</v>
+        <v>501.6525000070648</v>
       </c>
     </row>
     <row r="23">
@@ -5965,49 +5965,49 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1939.440297434839</v>
+        <v>1225.646706065584</v>
       </c>
       <c r="C23" t="n">
-        <v>1529.315706748109</v>
+        <v>1225.646706065584</v>
       </c>
       <c r="D23" t="n">
-        <v>1124.85177684117</v>
+        <v>821.1827761586449</v>
       </c>
       <c r="E23" t="n">
-        <v>710.5115613580665</v>
+        <v>763.8713012698054</v>
       </c>
       <c r="F23" t="n">
-        <v>710.5115613580665</v>
+        <v>763.8713012698054</v>
       </c>
       <c r="G23" t="n">
-        <v>303.4472076451391</v>
+        <v>356.806947556878</v>
       </c>
       <c r="H23" t="n">
-        <v>40.73609117563967</v>
+        <v>62.93917733461108</v>
       </c>
       <c r="I23" t="n">
-        <v>40.73609117563967</v>
+        <v>40.73609117563968</v>
       </c>
       <c r="J23" t="n">
-        <v>106.5593902090977</v>
+        <v>422.5702171530127</v>
       </c>
       <c r="K23" t="n">
-        <v>225.7605524198393</v>
+        <v>926.6793454515537</v>
       </c>
       <c r="L23" t="n">
-        <v>729.8696807183803</v>
+        <v>1089.504141214226</v>
       </c>
       <c r="M23" t="n">
-        <v>978.4028902917744</v>
+        <v>1283.504221644457</v>
       </c>
       <c r="N23" t="n">
-        <v>1482.512018590315</v>
+        <v>1482.512018590316</v>
       </c>
       <c r="O23" t="n">
-        <v>1665.028657244342</v>
+        <v>1665.028657244343</v>
       </c>
       <c r="P23" t="n">
-        <v>1806.829480316003</v>
+        <v>1806.829480316004</v>
       </c>
       <c r="Q23" t="n">
         <v>1893.806030630993</v>
@@ -6016,25 +6016,25 @@
         <v>2036.804558781984</v>
       </c>
       <c r="S23" t="n">
-        <v>1939.440297434839</v>
+        <v>2036.804558781984</v>
       </c>
       <c r="T23" t="n">
-        <v>1939.440297434839</v>
+        <v>2036.804558781984</v>
       </c>
       <c r="U23" t="n">
-        <v>1939.440297434839</v>
+        <v>2036.804558781984</v>
       </c>
       <c r="V23" t="n">
-        <v>1939.440297434839</v>
+        <v>2036.804558781984</v>
       </c>
       <c r="W23" t="n">
-        <v>1939.440297434839</v>
+        <v>2036.804558781984</v>
       </c>
       <c r="X23" t="n">
-        <v>1939.440297434839</v>
+        <v>2036.804558781984</v>
       </c>
       <c r="Y23" t="n">
-        <v>1939.440297434839</v>
+        <v>1635.867885730074</v>
       </c>
     </row>
     <row r="24">
@@ -6044,58 +6044,58 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>689.3298178528994</v>
+        <v>689.3298178528997</v>
       </c>
       <c r="C24" t="n">
-        <v>555.334746601845</v>
+        <v>555.3347466018455</v>
       </c>
       <c r="D24" t="n">
-        <v>438.4375888212375</v>
+        <v>438.4375888212378</v>
       </c>
       <c r="E24" t="n">
-        <v>317.9447728135655</v>
+        <v>317.9447728135658</v>
       </c>
       <c r="F24" t="n">
-        <v>208.98489299607</v>
+        <v>208.9848929960704</v>
       </c>
       <c r="G24" t="n">
-        <v>102.8850615586101</v>
+        <v>102.8850615586104</v>
       </c>
       <c r="H24" t="n">
-        <v>40.73609117563967</v>
+        <v>40.73609117563968</v>
       </c>
       <c r="I24" t="n">
-        <v>40.73609117563967</v>
+        <v>50.44264462921939</v>
       </c>
       <c r="J24" t="n">
-        <v>136.7795485676527</v>
+        <v>325.6937265558564</v>
       </c>
       <c r="K24" t="n">
-        <v>222.4120796161537</v>
+        <v>829.8028548543974</v>
       </c>
       <c r="L24" t="n">
-        <v>356.3162144894002</v>
+        <v>963.706989727644</v>
       </c>
       <c r="M24" t="n">
-        <v>860.4253427879412</v>
+        <v>1127.806330884477</v>
       </c>
       <c r="N24" t="n">
-        <v>1364.534471086482</v>
+        <v>1302.08439449978</v>
       </c>
       <c r="O24" t="n">
-        <v>1868.643599385023</v>
+        <v>1452.515757668923</v>
       </c>
       <c r="P24" t="n">
-        <v>1981.54813876298</v>
+        <v>1565.420297046879</v>
       </c>
       <c r="Q24" t="n">
-        <v>2036.804558781983</v>
+        <v>1953.069490276007</v>
       </c>
       <c r="R24" t="n">
-        <v>2036.804558781983</v>
+        <v>2036.804558781984</v>
       </c>
       <c r="S24" t="n">
-        <v>1945.351132607401</v>
+        <v>1945.351132607402</v>
       </c>
       <c r="T24" t="n">
         <v>1789.597726983432</v>
@@ -6107,13 +6107,13 @@
         <v>1378.593960249435</v>
       </c>
       <c r="W24" t="n">
-        <v>1165.360791985763</v>
+        <v>1165.360791985764</v>
       </c>
       <c r="X24" t="n">
-        <v>989.034810124656</v>
+        <v>989.0348101246564</v>
       </c>
       <c r="Y24" t="n">
-        <v>829.632850488486</v>
+        <v>829.6328504884864</v>
       </c>
     </row>
     <row r="25">
@@ -6123,55 +6123,55 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>608.7429747091662</v>
+        <v>134.6363979916959</v>
       </c>
       <c r="C25" t="n">
-        <v>608.7429747091662</v>
+        <v>134.6363979916959</v>
       </c>
       <c r="D25" t="n">
-        <v>608.7429747091662</v>
+        <v>134.6363979916959</v>
       </c>
       <c r="E25" t="n">
-        <v>608.7429747091662</v>
+        <v>134.6363979916959</v>
       </c>
       <c r="F25" t="n">
-        <v>444.1118488197575</v>
+        <v>134.6363979916959</v>
       </c>
       <c r="G25" t="n">
-        <v>277.6078396373075</v>
+        <v>134.6363979916959</v>
       </c>
       <c r="H25" t="n">
-        <v>134.6363979916958</v>
+        <v>134.6363979916959</v>
       </c>
       <c r="I25" t="n">
-        <v>40.73609117563967</v>
+        <v>40.73609117563968</v>
       </c>
       <c r="J25" t="n">
-        <v>41.5363696390619</v>
+        <v>106.5377332703983</v>
       </c>
       <c r="K25" t="n">
-        <v>281.0790541277168</v>
+        <v>213.8128061195729</v>
       </c>
       <c r="L25" t="n">
-        <v>649.7345499130969</v>
+        <v>582.468301904953</v>
       </c>
       <c r="M25" t="n">
-        <v>860.1288771476941</v>
+        <v>986.4028373535314</v>
       </c>
       <c r="N25" t="n">
-        <v>1252.91153086034</v>
+        <v>1379.185491066177</v>
       </c>
       <c r="O25" t="n">
-        <v>1615.870424989964</v>
+        <v>1742.144385195801</v>
       </c>
       <c r="P25" t="n">
-        <v>1910.020959638669</v>
+        <v>2036.294919844507</v>
       </c>
       <c r="Q25" t="n">
         <v>2036.804558781984</v>
       </c>
       <c r="R25" t="n">
-        <v>1985.091884437972</v>
+        <v>1985.091884437973</v>
       </c>
       <c r="S25" t="n">
         <v>1811.70751710858</v>
@@ -6186,13 +6186,13 @@
         <v>1018.704683576339</v>
       </c>
       <c r="W25" t="n">
-        <v>739.6350190852131</v>
+        <v>739.6350190852133</v>
       </c>
       <c r="X25" t="n">
-        <v>608.7429747091662</v>
+        <v>501.2911569448967</v>
       </c>
       <c r="Y25" t="n">
-        <v>608.7429747091662</v>
+        <v>276.5554583336614</v>
       </c>
     </row>
     <row r="26">
@@ -6202,49 +6202,49 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1225.646706065584</v>
+        <v>805.199044075441</v>
       </c>
       <c r="C26" t="n">
-        <v>815.5221153788544</v>
+        <v>447.800444888567</v>
       </c>
       <c r="D26" t="n">
-        <v>815.5221153788544</v>
+        <v>447.800444888567</v>
       </c>
       <c r="E26" t="n">
-        <v>461.7665032219521</v>
+        <v>447.800444888567</v>
       </c>
       <c r="F26" t="n">
-        <v>40.73609117563968</v>
+        <v>447.800444888567</v>
       </c>
       <c r="G26" t="n">
-        <v>40.73609117563968</v>
+        <v>40.73609117563967</v>
       </c>
       <c r="H26" t="n">
-        <v>40.73609117563968</v>
+        <v>40.73609117563967</v>
       </c>
       <c r="I26" t="n">
-        <v>40.73609117563968</v>
+        <v>40.73609117563967</v>
       </c>
       <c r="J26" t="n">
-        <v>106.5593902090978</v>
+        <v>433.3352170968269</v>
       </c>
       <c r="K26" t="n">
-        <v>438.4646333067024</v>
+        <v>552.5363793075685</v>
       </c>
       <c r="L26" t="n">
-        <v>601.2894290693746</v>
+        <v>715.3611750702407</v>
       </c>
       <c r="M26" t="n">
-        <v>1105.398557367916</v>
+        <v>1000.205415570145</v>
       </c>
       <c r="N26" t="n">
-        <v>1609.507685666457</v>
+        <v>1199.213212516004</v>
       </c>
       <c r="O26" t="n">
-        <v>1792.024324320484</v>
+        <v>1381.729851170031</v>
       </c>
       <c r="P26" t="n">
-        <v>1933.825147392145</v>
+        <v>1523.530674241692</v>
       </c>
       <c r="Q26" t="n">
         <v>2020.801697707134</v>
@@ -6253,25 +6253,25 @@
         <v>2036.804558781984</v>
       </c>
       <c r="S26" t="n">
-        <v>2036.804558781984</v>
+        <v>1939.440297434839</v>
       </c>
       <c r="T26" t="n">
-        <v>2036.804558781984</v>
+        <v>1939.440297434839</v>
       </c>
       <c r="U26" t="n">
-        <v>2036.804558781984</v>
+        <v>1939.440297434839</v>
       </c>
       <c r="V26" t="n">
-        <v>2036.804558781984</v>
+        <v>1589.60274277132</v>
       </c>
       <c r="W26" t="n">
-        <v>2036.804558781984</v>
+        <v>1205.842441906488</v>
       </c>
       <c r="X26" t="n">
-        <v>2036.804558781984</v>
+        <v>805.199044075441</v>
       </c>
       <c r="Y26" t="n">
-        <v>1635.867885730074</v>
+        <v>805.199044075441</v>
       </c>
     </row>
     <row r="27">
@@ -6281,58 +6281,58 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>689.3298178528997</v>
+        <v>689.3298178528993</v>
       </c>
       <c r="C27" t="n">
-        <v>555.3347466018455</v>
+        <v>555.334746601845</v>
       </c>
       <c r="D27" t="n">
-        <v>438.4375888212378</v>
+        <v>438.4375888212373</v>
       </c>
       <c r="E27" t="n">
-        <v>317.9447728135658</v>
+        <v>317.9447728135654</v>
       </c>
       <c r="F27" t="n">
-        <v>208.9848929960704</v>
+        <v>208.9848929960699</v>
       </c>
       <c r="G27" t="n">
-        <v>102.8850615586105</v>
+        <v>102.8850615586101</v>
       </c>
       <c r="H27" t="n">
-        <v>40.73609117563968</v>
+        <v>40.73609117563967</v>
       </c>
       <c r="I27" t="n">
-        <v>40.73609117563968</v>
+        <v>50.44264462921938</v>
       </c>
       <c r="J27" t="n">
-        <v>72.31876912764346</v>
+        <v>252.1163427622066</v>
       </c>
       <c r="K27" t="n">
-        <v>501.0483425205153</v>
+        <v>756.2254710607475</v>
       </c>
       <c r="L27" t="n">
-        <v>634.9524773937619</v>
+        <v>890.1296059339941</v>
       </c>
       <c r="M27" t="n">
-        <v>799.051818550595</v>
+        <v>1054.228947090827</v>
       </c>
       <c r="N27" t="n">
-        <v>973.329882165898</v>
+        <v>1228.50701070613</v>
       </c>
       <c r="O27" t="n">
-        <v>1477.439010464439</v>
+        <v>1378.938373875273</v>
       </c>
       <c r="P27" t="n">
-        <v>1981.54813876298</v>
+        <v>1491.842913253229</v>
       </c>
       <c r="Q27" t="n">
-        <v>2036.804558781984</v>
+        <v>1953.069490276007</v>
       </c>
       <c r="R27" t="n">
         <v>2036.804558781984</v>
       </c>
       <c r="S27" t="n">
-        <v>1945.351132607402</v>
+        <v>1945.351132607401</v>
       </c>
       <c r="T27" t="n">
         <v>1789.597726983432</v>
@@ -6341,16 +6341,16 @@
         <v>1592.305487256401</v>
       </c>
       <c r="V27" t="n">
-        <v>1378.593960249435</v>
+        <v>1378.593960249434</v>
       </c>
       <c r="W27" t="n">
-        <v>1165.360791985764</v>
+        <v>1165.360791985763</v>
       </c>
       <c r="X27" t="n">
-        <v>989.0348101246564</v>
+        <v>989.0348101246559</v>
       </c>
       <c r="Y27" t="n">
-        <v>829.6328504884864</v>
+        <v>829.6328504884859</v>
       </c>
     </row>
     <row r="28">
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>276.5554583336614</v>
+        <v>140.5684262836281</v>
       </c>
       <c r="C28" t="n">
-        <v>276.5554583336614</v>
+        <v>140.5684262836281</v>
       </c>
       <c r="D28" t="n">
-        <v>276.5554583336614</v>
+        <v>140.5684262836281</v>
       </c>
       <c r="E28" t="n">
-        <v>276.5554583336614</v>
+        <v>140.5684262836281</v>
       </c>
       <c r="F28" t="n">
-        <v>111.9243324442527</v>
+        <v>140.5684262836281</v>
       </c>
       <c r="G28" t="n">
-        <v>40.73609117563968</v>
+        <v>40.73609117563967</v>
       </c>
       <c r="H28" t="n">
-        <v>40.73609117563968</v>
+        <v>40.73609117563967</v>
       </c>
       <c r="I28" t="n">
-        <v>40.73609117563968</v>
+        <v>40.73609117563967</v>
       </c>
       <c r="J28" t="n">
         <v>106.5377332703983</v>
@@ -6390,10 +6390,10 @@
         <v>346.0804177590531</v>
       </c>
       <c r="L28" t="n">
-        <v>714.7359135444333</v>
+        <v>456.1943416991157</v>
       </c>
       <c r="M28" t="n">
-        <v>1118.670448993012</v>
+        <v>860.1288771476941</v>
       </c>
       <c r="N28" t="n">
         <v>1252.91153086034</v>
@@ -6402,34 +6402,34 @@
         <v>1615.870424989964</v>
       </c>
       <c r="P28" t="n">
-        <v>1910.02095963867</v>
+        <v>1910.020959638669</v>
       </c>
       <c r="Q28" t="n">
         <v>2036.804558781984</v>
       </c>
       <c r="R28" t="n">
-        <v>1985.091884437973</v>
+        <v>2036.804558781984</v>
       </c>
       <c r="S28" t="n">
-        <v>1811.70751710858</v>
+        <v>1863.420191452591</v>
       </c>
       <c r="T28" t="n">
-        <v>1575.347864351129</v>
+        <v>1627.06053869514</v>
       </c>
       <c r="U28" t="n">
-        <v>1292.590428636817</v>
+        <v>1344.303102980828</v>
       </c>
       <c r="V28" t="n">
-        <v>1018.704683576339</v>
+        <v>1070.41735792035</v>
       </c>
       <c r="W28" t="n">
-        <v>739.6350190852133</v>
+        <v>791.3476934292244</v>
       </c>
       <c r="X28" t="n">
-        <v>501.2911569448967</v>
+        <v>553.0038312889078</v>
       </c>
       <c r="Y28" t="n">
-        <v>276.5554583336614</v>
+        <v>328.2681326776725</v>
       </c>
     </row>
     <row r="29">
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1626.583379117494</v>
+        <v>1538.796899603792</v>
       </c>
       <c r="C29" t="n">
-        <v>1216.458788430764</v>
+        <v>1538.796899603792</v>
       </c>
       <c r="D29" t="n">
-        <v>1216.458788430764</v>
+        <v>1134.332969696852</v>
       </c>
       <c r="E29" t="n">
-        <v>802.1185729476611</v>
+        <v>755.6342734442189</v>
       </c>
       <c r="F29" t="n">
-        <v>381.0881609013486</v>
+        <v>334.6038613979065</v>
       </c>
       <c r="G29" t="n">
-        <v>40.73609117563967</v>
+        <v>334.6038613979065</v>
       </c>
       <c r="H29" t="n">
         <v>40.73609117563967</v>
@@ -6463,52 +6463,52 @@
         <v>40.73609117563967</v>
       </c>
       <c r="J29" t="n">
-        <v>433.3352170968269</v>
+        <v>397.1837100903592</v>
       </c>
       <c r="K29" t="n">
-        <v>552.5363793075685</v>
+        <v>516.3848723011008</v>
       </c>
       <c r="L29" t="n">
-        <v>715.3611750702407</v>
+        <v>679.2096680637731</v>
       </c>
       <c r="M29" t="n">
-        <v>909.3612555004715</v>
+        <v>873.2097484940039</v>
       </c>
       <c r="N29" t="n">
-        <v>1108.36905244633</v>
+        <v>1072.217545439863</v>
       </c>
       <c r="O29" t="n">
-        <v>1290.885691100357</v>
+        <v>1254.73418409389</v>
       </c>
       <c r="P29" t="n">
-        <v>1432.686514172018</v>
+        <v>1396.535007165551</v>
       </c>
       <c r="Q29" t="n">
-        <v>1929.957537637461</v>
+        <v>1893.806030630993</v>
       </c>
       <c r="R29" t="n">
         <v>2036.804558781984</v>
       </c>
       <c r="S29" t="n">
-        <v>2036.804558781984</v>
+        <v>1939.440297434839</v>
       </c>
       <c r="T29" t="n">
-        <v>2036.804558781984</v>
+        <v>1939.440297434839</v>
       </c>
       <c r="U29" t="n">
-        <v>2036.804558781984</v>
+        <v>1939.440297434839</v>
       </c>
       <c r="V29" t="n">
-        <v>2036.804558781984</v>
+        <v>1939.440297434839</v>
       </c>
       <c r="W29" t="n">
-        <v>2036.804558781984</v>
+        <v>1939.440297434839</v>
       </c>
       <c r="X29" t="n">
-        <v>2036.804558781984</v>
+        <v>1538.796899603792</v>
       </c>
       <c r="Y29" t="n">
-        <v>2036.804558781984</v>
+        <v>1538.796899603792</v>
       </c>
     </row>
     <row r="30">
@@ -6518,55 +6518,55 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>689.3298178528993</v>
+        <v>689.3298178528994</v>
       </c>
       <c r="C30" t="n">
         <v>555.334746601845</v>
       </c>
       <c r="D30" t="n">
-        <v>438.4375888212373</v>
+        <v>438.4375888212375</v>
       </c>
       <c r="E30" t="n">
-        <v>317.9447728135654</v>
+        <v>317.9447728135655</v>
       </c>
       <c r="F30" t="n">
-        <v>208.9848929960699</v>
+        <v>208.98489299607</v>
       </c>
       <c r="G30" t="n">
-        <v>102.8850615586102</v>
+        <v>102.8850615586101</v>
       </c>
       <c r="H30" t="n">
         <v>40.73609117563967</v>
       </c>
       <c r="I30" t="n">
-        <v>40.73609117563967</v>
+        <v>50.44264462921938</v>
       </c>
       <c r="J30" t="n">
-        <v>315.9871731022767</v>
+        <v>325.6937265558564</v>
       </c>
       <c r="K30" t="n">
-        <v>820.0963014008177</v>
+        <v>411.3262576043575</v>
       </c>
       <c r="L30" t="n">
-        <v>954.0004362740642</v>
+        <v>545.230392477604</v>
       </c>
       <c r="M30" t="n">
-        <v>1118.099777430897</v>
+        <v>709.3297336344372</v>
       </c>
       <c r="N30" t="n">
-        <v>1327.007647295296</v>
+        <v>883.6077972497401</v>
       </c>
       <c r="O30" t="n">
-        <v>1477.439010464439</v>
+        <v>1034.039160418883</v>
       </c>
       <c r="P30" t="n">
-        <v>1981.54813876298</v>
+        <v>1491.842913253229</v>
       </c>
       <c r="Q30" t="n">
-        <v>2036.804558781984</v>
+        <v>1953.069490276006</v>
       </c>
       <c r="R30" t="n">
-        <v>2036.804558781984</v>
+        <v>2036.804558781983</v>
       </c>
       <c r="S30" t="n">
         <v>1945.351132607401</v>
@@ -6578,16 +6578,16 @@
         <v>1592.305487256401</v>
       </c>
       <c r="V30" t="n">
-        <v>1378.593960249434</v>
+        <v>1378.593960249435</v>
       </c>
       <c r="W30" t="n">
         <v>1165.360791985763</v>
       </c>
       <c r="X30" t="n">
-        <v>989.0348101246559</v>
+        <v>989.034810124656</v>
       </c>
       <c r="Y30" t="n">
-        <v>829.6328504884859</v>
+        <v>829.632850488486</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>501.2911569448965</v>
+        <v>414.4541713441062</v>
       </c>
       <c r="C31" t="n">
-        <v>330.197784506613</v>
+        <v>371.8712262474984</v>
       </c>
       <c r="D31" t="n">
-        <v>330.197784506613</v>
+        <v>371.8712262474984</v>
       </c>
       <c r="E31" t="n">
-        <v>330.197784506613</v>
+        <v>371.8712262474984</v>
       </c>
       <c r="F31" t="n">
-        <v>330.197784506613</v>
+        <v>207.2401003580896</v>
       </c>
       <c r="G31" t="n">
-        <v>277.6078396373075</v>
+        <v>40.73609117563967</v>
       </c>
       <c r="H31" t="n">
-        <v>134.6363979916958</v>
+        <v>40.73609117563967</v>
       </c>
       <c r="I31" t="n">
         <v>40.73609117563967</v>
       </c>
       <c r="J31" t="n">
-        <v>41.5363696390619</v>
+        <v>106.5377332703983</v>
       </c>
       <c r="K31" t="n">
-        <v>281.0790541277168</v>
+        <v>346.0804177590531</v>
       </c>
       <c r="L31" t="n">
-        <v>649.7345499130969</v>
+        <v>714.7359135444333</v>
       </c>
       <c r="M31" t="n">
-        <v>1053.669085361675</v>
+        <v>986.4028373535311</v>
       </c>
       <c r="N31" t="n">
-        <v>1446.451739074321</v>
+        <v>1379.185491066177</v>
       </c>
       <c r="O31" t="n">
-        <v>1615.870424989964</v>
+        <v>1742.144385195801</v>
       </c>
       <c r="P31" t="n">
-        <v>1910.020959638669</v>
+        <v>2036.294919844506</v>
       </c>
       <c r="Q31" t="n">
         <v>2036.804558781984</v>
       </c>
       <c r="R31" t="n">
-        <v>1985.091884437972</v>
+        <v>2036.804558781984</v>
       </c>
       <c r="S31" t="n">
-        <v>1811.70751710858</v>
+        <v>1863.420191452591</v>
       </c>
       <c r="T31" t="n">
-        <v>1575.347864351129</v>
+        <v>1627.06053869514</v>
       </c>
       <c r="U31" t="n">
-        <v>1292.590428636817</v>
+        <v>1344.303102980828</v>
       </c>
       <c r="V31" t="n">
-        <v>1018.704683576339</v>
+        <v>1344.303102980828</v>
       </c>
       <c r="W31" t="n">
-        <v>739.6350190852131</v>
+        <v>1065.233438489702</v>
       </c>
       <c r="X31" t="n">
-        <v>501.2911569448965</v>
+        <v>826.8895763493858</v>
       </c>
       <c r="Y31" t="n">
-        <v>501.2911569448965</v>
+        <v>602.1538777381505</v>
       </c>
     </row>
     <row r="32">
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1269.664827252412</v>
+        <v>1305.374158576954</v>
       </c>
       <c r="C32" t="n">
-        <v>859.5402365656824</v>
+        <v>1305.374158576954</v>
       </c>
       <c r="D32" t="n">
-        <v>455.076306658743</v>
+        <v>1305.374158576954</v>
       </c>
       <c r="E32" t="n">
-        <v>40.73609117563967</v>
+        <v>891.0339430938509</v>
       </c>
       <c r="F32" t="n">
-        <v>40.73609117563967</v>
+        <v>470.0035310475384</v>
       </c>
       <c r="G32" t="n">
-        <v>40.73609117563967</v>
+        <v>62.93917733461107</v>
       </c>
       <c r="H32" t="n">
-        <v>40.73609117563967</v>
+        <v>62.93917733461107</v>
       </c>
       <c r="I32" t="n">
         <v>40.73609117563967</v>
@@ -6703,10 +6703,10 @@
         <v>433.3352170968269</v>
       </c>
       <c r="K32" t="n">
-        <v>552.5363793075685</v>
+        <v>937.4443453953679</v>
       </c>
       <c r="L32" t="n">
-        <v>906.3907604220565</v>
+        <v>1216.499808290367</v>
       </c>
       <c r="M32" t="n">
         <v>1410.499888720597</v>
@@ -6730,22 +6730,22 @@
         <v>1939.440297434839</v>
       </c>
       <c r="T32" t="n">
-        <v>1939.440297434839</v>
+        <v>1724.517668682485</v>
       </c>
       <c r="U32" t="n">
-        <v>1939.440297434839</v>
+        <v>1689.134459441786</v>
       </c>
       <c r="V32" t="n">
-        <v>1939.440297434839</v>
+        <v>1689.134459441786</v>
       </c>
       <c r="W32" t="n">
-        <v>1939.440297434839</v>
+        <v>1305.374158576954</v>
       </c>
       <c r="X32" t="n">
-        <v>1939.440297434839</v>
+        <v>1305.374158576954</v>
       </c>
       <c r="Y32" t="n">
-        <v>1679.886006916902</v>
+        <v>1305.374158576954</v>
       </c>
     </row>
     <row r="33">
@@ -6776,31 +6776,31 @@
         <v>40.73609117563967</v>
       </c>
       <c r="I33" t="n">
-        <v>40.73609117563967</v>
+        <v>50.44264462921938</v>
       </c>
       <c r="J33" t="n">
-        <v>315.9871731022767</v>
+        <v>325.6937265558564</v>
       </c>
       <c r="K33" t="n">
-        <v>820.0963014008177</v>
+        <v>756.2254710607473</v>
       </c>
       <c r="L33" t="n">
-        <v>954.0004362740642</v>
+        <v>890.1296059339938</v>
       </c>
       <c r="M33" t="n">
-        <v>1118.099777430897</v>
+        <v>1054.228947090827</v>
       </c>
       <c r="N33" t="n">
-        <v>1327.007647295296</v>
+        <v>1228.50701070613</v>
       </c>
       <c r="O33" t="n">
-        <v>1477.439010464439</v>
+        <v>1378.938373875273</v>
       </c>
       <c r="P33" t="n">
-        <v>1981.54813876298</v>
+        <v>1491.842913253229</v>
       </c>
       <c r="Q33" t="n">
-        <v>2036.804558781983</v>
+        <v>1953.069490276006</v>
       </c>
       <c r="R33" t="n">
         <v>2036.804558781983</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>465.2244151070693</v>
+        <v>1050.91809942505</v>
       </c>
       <c r="C34" t="n">
-        <v>294.1310426687858</v>
+        <v>879.8247269867668</v>
       </c>
       <c r="D34" t="n">
-        <v>134.6363979916958</v>
+        <v>720.3300823096768</v>
       </c>
       <c r="E34" t="n">
-        <v>134.6363979916958</v>
+        <v>608.7429747091662</v>
       </c>
       <c r="F34" t="n">
-        <v>134.6363979916958</v>
+        <v>444.1118488197575</v>
       </c>
       <c r="G34" t="n">
-        <v>134.6363979916958</v>
+        <v>277.6078396373075</v>
       </c>
       <c r="H34" t="n">
         <v>134.6363979916958</v>
@@ -6882,28 +6882,28 @@
         <v>2036.804558781984</v>
       </c>
       <c r="R34" t="n">
-        <v>1985.091884437972</v>
+        <v>2036.804558781984</v>
       </c>
       <c r="S34" t="n">
-        <v>1811.70751710858</v>
+        <v>2036.804558781984</v>
       </c>
       <c r="T34" t="n">
-        <v>1672.646863027456</v>
+        <v>1800.444906024532</v>
       </c>
       <c r="U34" t="n">
-        <v>1389.889427313144</v>
+        <v>1517.68747031022</v>
       </c>
       <c r="V34" t="n">
-        <v>1116.003682252666</v>
+        <v>1517.68747031022</v>
       </c>
       <c r="W34" t="n">
-        <v>1116.003682252666</v>
+        <v>1238.617805819095</v>
       </c>
       <c r="X34" t="n">
-        <v>877.6598201123491</v>
+        <v>1238.617805819095</v>
       </c>
       <c r="Y34" t="n">
-        <v>652.9241215011137</v>
+        <v>1238.617805819095</v>
       </c>
     </row>
     <row r="35">
@@ -6913,49 +6913,49 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1626.583379117494</v>
+        <v>1308.434395550757</v>
       </c>
       <c r="C35" t="n">
-        <v>1216.458788430764</v>
+        <v>898.3098048640268</v>
       </c>
       <c r="D35" t="n">
-        <v>1216.458788430764</v>
+        <v>898.3098048640268</v>
       </c>
       <c r="E35" t="n">
-        <v>802.1185729476611</v>
+        <v>483.9695893809235</v>
       </c>
       <c r="F35" t="n">
-        <v>381.0881609013486</v>
+        <v>62.93917733461107</v>
       </c>
       <c r="G35" t="n">
-        <v>40.73609117563967</v>
+        <v>62.93917733461107</v>
       </c>
       <c r="H35" t="n">
-        <v>40.73609117563967</v>
+        <v>62.93917733461107</v>
       </c>
       <c r="I35" t="n">
         <v>40.73609117563967</v>
       </c>
       <c r="J35" t="n">
-        <v>106.5593902090977</v>
+        <v>433.3352170968269</v>
       </c>
       <c r="K35" t="n">
-        <v>225.7605524198393</v>
+        <v>552.5363793075685</v>
       </c>
       <c r="L35" t="n">
-        <v>388.5853481825116</v>
+        <v>715.3611750702407</v>
       </c>
       <c r="M35" t="n">
-        <v>582.5854286127425</v>
+        <v>909.3612555004715</v>
       </c>
       <c r="N35" t="n">
-        <v>781.5932255586015</v>
+        <v>1108.36905244633</v>
       </c>
       <c r="O35" t="n">
-        <v>1254.73418409389</v>
+        <v>1290.885691100357</v>
       </c>
       <c r="P35" t="n">
-        <v>1396.535007165551</v>
+        <v>1432.686514172018</v>
       </c>
       <c r="Q35" t="n">
         <v>1893.806030630993</v>
@@ -6964,25 +6964,25 @@
         <v>2036.804558781984</v>
       </c>
       <c r="S35" t="n">
-        <v>2036.804558781984</v>
+        <v>1939.440297434839</v>
       </c>
       <c r="T35" t="n">
-        <v>2036.804558781984</v>
+        <v>1724.517668682485</v>
       </c>
       <c r="U35" t="n">
-        <v>2036.804558781984</v>
+        <v>1709.077793381804</v>
       </c>
       <c r="V35" t="n">
-        <v>2036.804558781984</v>
+        <v>1709.077793381804</v>
       </c>
       <c r="W35" t="n">
-        <v>2036.804558781984</v>
+        <v>1709.077793381804</v>
       </c>
       <c r="X35" t="n">
-        <v>2036.804558781984</v>
+        <v>1308.434395550757</v>
       </c>
       <c r="Y35" t="n">
-        <v>2036.804558781984</v>
+        <v>1308.434395550757</v>
       </c>
     </row>
     <row r="36">
@@ -6998,13 +6998,13 @@
         <v>555.334746601845</v>
       </c>
       <c r="D36" t="n">
-        <v>438.4375888212373</v>
+        <v>438.4375888212376</v>
       </c>
       <c r="E36" t="n">
-        <v>317.9447728135654</v>
+        <v>317.9447728135656</v>
       </c>
       <c r="F36" t="n">
-        <v>208.9848929960699</v>
+        <v>208.9848929960701</v>
       </c>
       <c r="G36" t="n">
         <v>102.8850615586101</v>
@@ -7013,28 +7013,28 @@
         <v>40.73609117563967</v>
       </c>
       <c r="I36" t="n">
-        <v>40.73609117563967</v>
+        <v>50.44264462921938</v>
       </c>
       <c r="J36" t="n">
-        <v>72.31876912764346</v>
+        <v>325.6937265558564</v>
       </c>
       <c r="K36" t="n">
-        <v>576.4278974261845</v>
+        <v>411.3262576043575</v>
       </c>
       <c r="L36" t="n">
-        <v>1080.537025724725</v>
+        <v>545.230392477604</v>
       </c>
       <c r="M36" t="n">
-        <v>1244.636366881559</v>
+        <v>709.3297336344372</v>
       </c>
       <c r="N36" t="n">
-        <v>1418.914430496862</v>
+        <v>1213.438861932978</v>
       </c>
       <c r="O36" t="n">
-        <v>1784.908530879047</v>
+        <v>1363.870225102121</v>
       </c>
       <c r="P36" t="n">
-        <v>1897.813070257003</v>
+        <v>1491.842913253229</v>
       </c>
       <c r="Q36" t="n">
         <v>1953.069490276007</v>
@@ -7052,7 +7052,7 @@
         <v>1592.305487256401</v>
       </c>
       <c r="V36" t="n">
-        <v>1378.593960249434</v>
+        <v>1378.593960249435</v>
       </c>
       <c r="W36" t="n">
         <v>1165.360791985763</v>
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>276.5554583336612</v>
+        <v>207.2401003580896</v>
       </c>
       <c r="C37" t="n">
-        <v>105.4620858953777</v>
+        <v>207.2401003580896</v>
       </c>
       <c r="D37" t="n">
-        <v>105.4620858953777</v>
+        <v>207.2401003580896</v>
       </c>
       <c r="E37" t="n">
-        <v>105.4620858953777</v>
+        <v>207.2401003580896</v>
       </c>
       <c r="F37" t="n">
-        <v>105.4620858953777</v>
+        <v>207.2401003580896</v>
       </c>
       <c r="G37" t="n">
         <v>40.73609117563967</v>
@@ -7095,52 +7095,52 @@
         <v>40.73609117563967</v>
       </c>
       <c r="J37" t="n">
-        <v>41.5363696390619</v>
+        <v>106.5377332703983</v>
       </c>
       <c r="K37" t="n">
-        <v>213.8128061195727</v>
+        <v>346.0804177590531</v>
       </c>
       <c r="L37" t="n">
-        <v>582.4683019049528</v>
+        <v>714.7359135444333</v>
       </c>
       <c r="M37" t="n">
-        <v>986.4028373535311</v>
+        <v>860.1288771476941</v>
       </c>
       <c r="N37" t="n">
-        <v>1379.185491066177</v>
+        <v>1252.91153086034</v>
       </c>
       <c r="O37" t="n">
-        <v>1742.144385195801</v>
+        <v>1615.870424989964</v>
       </c>
       <c r="P37" t="n">
-        <v>2036.294919844506</v>
+        <v>1910.020959638669</v>
       </c>
       <c r="Q37" t="n">
         <v>2036.804558781984</v>
       </c>
       <c r="R37" t="n">
-        <v>1985.091884437972</v>
+        <v>2036.804558781984</v>
       </c>
       <c r="S37" t="n">
-        <v>1811.70751710858</v>
+        <v>1930.091865527053</v>
       </c>
       <c r="T37" t="n">
-        <v>1575.347864351129</v>
+        <v>1693.732212769602</v>
       </c>
       <c r="U37" t="n">
-        <v>1292.590428636817</v>
+        <v>1410.97477705529</v>
       </c>
       <c r="V37" t="n">
-        <v>1018.704683576339</v>
+        <v>1137.089031994812</v>
       </c>
       <c r="W37" t="n">
-        <v>739.6350190852131</v>
+        <v>858.019367503686</v>
       </c>
       <c r="X37" t="n">
-        <v>501.2911569448965</v>
+        <v>619.6755053633693</v>
       </c>
       <c r="Y37" t="n">
-        <v>276.5554583336612</v>
+        <v>394.939806752134</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1314.296489017996</v>
+        <v>467.4031072415506</v>
       </c>
       <c r="C38" t="n">
-        <v>1314.296489017996</v>
+        <v>467.4031072415506</v>
       </c>
       <c r="D38" t="n">
-        <v>1314.296489017996</v>
+        <v>62.93917733461107</v>
       </c>
       <c r="E38" t="n">
-        <v>899.9562735348927</v>
+        <v>62.93917733461107</v>
       </c>
       <c r="F38" t="n">
-        <v>763.8713012698054</v>
+        <v>62.93917733461107</v>
       </c>
       <c r="G38" t="n">
-        <v>356.806947556878</v>
+        <v>62.93917733461107</v>
       </c>
       <c r="H38" t="n">
         <v>62.93917733461107</v>
@@ -7177,22 +7177,22 @@
         <v>433.3352170968269</v>
       </c>
       <c r="K38" t="n">
-        <v>552.5363793075685</v>
+        <v>564.3710402246734</v>
       </c>
       <c r="L38" t="n">
-        <v>715.3611750702407</v>
+        <v>727.1958359873456</v>
       </c>
       <c r="M38" t="n">
-        <v>909.3612555004715</v>
+        <v>921.1959164175764</v>
       </c>
       <c r="N38" t="n">
-        <v>1108.36905244633</v>
+        <v>1120.203713363435</v>
       </c>
       <c r="O38" t="n">
-        <v>1290.885691100357</v>
+        <v>1302.720352017462</v>
       </c>
       <c r="P38" t="n">
-        <v>1432.686514172018</v>
+        <v>1806.829480316003</v>
       </c>
       <c r="Q38" t="n">
         <v>1893.806030630993</v>
@@ -7201,25 +7201,25 @@
         <v>2036.804558781984</v>
       </c>
       <c r="S38" t="n">
-        <v>1939.440297434839</v>
+        <v>2002.581033652859</v>
       </c>
       <c r="T38" t="n">
-        <v>1724.517668682485</v>
+        <v>2002.581033652859</v>
       </c>
       <c r="U38" t="n">
-        <v>1724.517668682485</v>
+        <v>2002.581033652859</v>
       </c>
       <c r="V38" t="n">
-        <v>1724.517668682485</v>
+        <v>1652.743478989339</v>
       </c>
       <c r="W38" t="n">
-        <v>1724.517668682485</v>
+        <v>1268.983178124508</v>
       </c>
       <c r="X38" t="n">
-        <v>1724.517668682485</v>
+        <v>868.3397802934605</v>
       </c>
       <c r="Y38" t="n">
-        <v>1724.517668682485</v>
+        <v>467.4031072415506</v>
       </c>
     </row>
     <row r="39">
@@ -7229,52 +7229,52 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>689.3298178528994</v>
+        <v>689.3298178528997</v>
       </c>
       <c r="C39" t="n">
-        <v>555.334746601845</v>
+        <v>555.3347466018454</v>
       </c>
       <c r="D39" t="n">
-        <v>438.4375888212375</v>
+        <v>438.4375888212378</v>
       </c>
       <c r="E39" t="n">
-        <v>317.9447728135655</v>
+        <v>317.9447728135658</v>
       </c>
       <c r="F39" t="n">
-        <v>208.98489299607</v>
+        <v>208.9848929960704</v>
       </c>
       <c r="G39" t="n">
-        <v>102.8850615586101</v>
+        <v>102.8850615586105</v>
       </c>
       <c r="H39" t="n">
         <v>40.73609117563967</v>
       </c>
       <c r="I39" t="n">
-        <v>40.73609117563967</v>
+        <v>50.44264462921938</v>
       </c>
       <c r="J39" t="n">
-        <v>72.31876912764346</v>
+        <v>325.6937265558564</v>
       </c>
       <c r="K39" t="n">
-        <v>184.8852558249675</v>
+        <v>756.2254710607475</v>
       </c>
       <c r="L39" t="n">
-        <v>318.789390698214</v>
+        <v>890.1296059339941</v>
       </c>
       <c r="M39" t="n">
-        <v>822.898518996755</v>
+        <v>1054.228947090827</v>
       </c>
       <c r="N39" t="n">
-        <v>1327.007647295296</v>
+        <v>1228.50701070613</v>
       </c>
       <c r="O39" t="n">
-        <v>1477.439010464439</v>
+        <v>1378.938373875273</v>
       </c>
       <c r="P39" t="n">
-        <v>1981.54813876298</v>
+        <v>1491.842913253229</v>
       </c>
       <c r="Q39" t="n">
-        <v>2036.804558781984</v>
+        <v>1953.069490276007</v>
       </c>
       <c r="R39" t="n">
         <v>2036.804558781984</v>
@@ -7295,10 +7295,10 @@
         <v>1165.360791985764</v>
       </c>
       <c r="X39" t="n">
-        <v>989.034810124656</v>
+        <v>989.0348101246564</v>
       </c>
       <c r="Y39" t="n">
-        <v>829.632850488486</v>
+        <v>829.6328504884864</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>940.7471622791302</v>
+        <v>1006.341500140164</v>
       </c>
       <c r="C40" t="n">
-        <v>769.6537898408467</v>
+        <v>835.2481277018805</v>
       </c>
       <c r="D40" t="n">
-        <v>769.6537898408467</v>
+        <v>675.7534830247905</v>
       </c>
       <c r="E40" t="n">
-        <v>608.7429747091662</v>
+        <v>514.84266789311</v>
       </c>
       <c r="F40" t="n">
-        <v>444.1118488197575</v>
+        <v>350.2115420037013</v>
       </c>
       <c r="G40" t="n">
-        <v>277.6078396373075</v>
+        <v>183.7075328212513</v>
       </c>
       <c r="H40" t="n">
-        <v>134.6363979916958</v>
+        <v>40.73609117563967</v>
       </c>
       <c r="I40" t="n">
         <v>40.73609117563967</v>
       </c>
       <c r="J40" t="n">
-        <v>41.5363696390619</v>
+        <v>106.5377332703983</v>
       </c>
       <c r="K40" t="n">
-        <v>281.0790541277168</v>
+        <v>213.8128061195727</v>
       </c>
       <c r="L40" t="n">
-        <v>649.7345499130969</v>
+        <v>582.4683019049528</v>
       </c>
       <c r="M40" t="n">
-        <v>1053.669085361675</v>
+        <v>986.4028373535311</v>
       </c>
       <c r="N40" t="n">
-        <v>1446.451739074321</v>
+        <v>1379.185491066177</v>
       </c>
       <c r="O40" t="n">
-        <v>1809.410633203945</v>
+        <v>1742.144385195801</v>
       </c>
       <c r="P40" t="n">
-        <v>1910.020959638669</v>
+        <v>2036.294919844506</v>
       </c>
       <c r="Q40" t="n">
         <v>2036.804558781984</v>
       </c>
       <c r="R40" t="n">
-        <v>1985.091884437972</v>
+        <v>2036.804558781984</v>
       </c>
       <c r="S40" t="n">
-        <v>1811.70751710858</v>
+        <v>1863.420191452591</v>
       </c>
       <c r="T40" t="n">
-        <v>1575.347864351129</v>
+        <v>1627.06053869514</v>
       </c>
       <c r="U40" t="n">
-        <v>1292.590428636817</v>
+        <v>1627.06053869514</v>
       </c>
       <c r="V40" t="n">
-        <v>1292.590428636817</v>
+        <v>1627.06053869514</v>
       </c>
       <c r="W40" t="n">
-        <v>1292.590428636817</v>
+        <v>1432.385068674525</v>
       </c>
       <c r="X40" t="n">
-        <v>1292.590428636817</v>
+        <v>1194.041206534208</v>
       </c>
       <c r="Y40" t="n">
-        <v>1067.854730025581</v>
+        <v>1194.041206534208</v>
       </c>
     </row>
     <row r="41">
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>455.076306658743</v>
+        <v>771.1471630399813</v>
       </c>
       <c r="C41" t="n">
-        <v>455.076306658743</v>
+        <v>771.1471630399813</v>
       </c>
       <c r="D41" t="n">
-        <v>455.076306658743</v>
+        <v>771.1471630399813</v>
       </c>
       <c r="E41" t="n">
-        <v>40.73609117563967</v>
+        <v>356.806947556878</v>
       </c>
       <c r="F41" t="n">
-        <v>40.73609117563967</v>
+        <v>356.806947556878</v>
       </c>
       <c r="G41" t="n">
-        <v>40.73609117563967</v>
+        <v>356.806947556878</v>
       </c>
       <c r="H41" t="n">
-        <v>40.73609117563967</v>
+        <v>62.93917733461107</v>
       </c>
       <c r="I41" t="n">
         <v>40.73609117563967</v>
@@ -7414,25 +7414,25 @@
         <v>433.3352170968269</v>
       </c>
       <c r="K41" t="n">
-        <v>605.0868558070395</v>
+        <v>552.5363793075685</v>
       </c>
       <c r="L41" t="n">
-        <v>767.9116515697117</v>
+        <v>715.3611750702407</v>
       </c>
       <c r="M41" t="n">
-        <v>961.9117319999425</v>
+        <v>909.3612555004715</v>
       </c>
       <c r="N41" t="n">
-        <v>1160.919528945801</v>
+        <v>1247.199380439576</v>
       </c>
       <c r="O41" t="n">
-        <v>1665.028657244342</v>
+        <v>1429.716019093603</v>
       </c>
       <c r="P41" t="n">
-        <v>1806.829480316003</v>
+        <v>1933.825147392144</v>
       </c>
       <c r="Q41" t="n">
-        <v>1893.806030630993</v>
+        <v>2020.801697707134</v>
       </c>
       <c r="R41" t="n">
         <v>2036.804558781984</v>
@@ -7441,22 +7441,22 @@
         <v>1939.440297434839</v>
       </c>
       <c r="T41" t="n">
-        <v>1939.440297434839</v>
+        <v>1724.517668682485</v>
       </c>
       <c r="U41" t="n">
-        <v>1939.440297434839</v>
+        <v>1724.517668682485</v>
       </c>
       <c r="V41" t="n">
-        <v>1666.87755720619</v>
+        <v>1724.517668682485</v>
       </c>
       <c r="W41" t="n">
-        <v>1666.87755720619</v>
+        <v>1340.757367817654</v>
       </c>
       <c r="X41" t="n">
-        <v>1266.234159375142</v>
+        <v>940.1139699866067</v>
       </c>
       <c r="Y41" t="n">
-        <v>865.2974863232324</v>
+        <v>771.1471630399813</v>
       </c>
     </row>
     <row r="42">
@@ -7466,49 +7466,49 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>689.3298178528993</v>
+        <v>689.3298178528994</v>
       </c>
       <c r="C42" t="n">
         <v>555.334746601845</v>
       </c>
       <c r="D42" t="n">
-        <v>438.4375888212373</v>
+        <v>438.4375888212375</v>
       </c>
       <c r="E42" t="n">
-        <v>317.9447728135654</v>
+        <v>317.9447728135655</v>
       </c>
       <c r="F42" t="n">
-        <v>208.9848929960699</v>
+        <v>208.98489299607</v>
       </c>
       <c r="G42" t="n">
-        <v>102.8850615586102</v>
+        <v>102.8850615586101</v>
       </c>
       <c r="H42" t="n">
         <v>40.73609117563967</v>
       </c>
       <c r="I42" t="n">
-        <v>40.73609117563967</v>
+        <v>50.44264462921938</v>
       </c>
       <c r="J42" t="n">
-        <v>72.31876912764346</v>
+        <v>325.6937265558564</v>
       </c>
       <c r="K42" t="n">
-        <v>576.4278974261845</v>
+        <v>411.3262576043575</v>
       </c>
       <c r="L42" t="n">
-        <v>710.332032299431</v>
+        <v>545.230392477604</v>
       </c>
       <c r="M42" t="n">
-        <v>874.4313734562641</v>
+        <v>709.3297336344372</v>
       </c>
       <c r="N42" t="n">
-        <v>1243.272578789319</v>
+        <v>883.6077972497401</v>
       </c>
       <c r="O42" t="n">
-        <v>1393.703941958462</v>
+        <v>1034.039160418883</v>
       </c>
       <c r="P42" t="n">
-        <v>1897.813070257003</v>
+        <v>1491.842913253229</v>
       </c>
       <c r="Q42" t="n">
         <v>1953.069490276007</v>
@@ -7526,16 +7526,16 @@
         <v>1592.305487256401</v>
       </c>
       <c r="V42" t="n">
-        <v>1378.593960249434</v>
+        <v>1378.593960249435</v>
       </c>
       <c r="W42" t="n">
         <v>1165.360791985763</v>
       </c>
       <c r="X42" t="n">
-        <v>989.0348101246559</v>
+        <v>989.034810124656</v>
       </c>
       <c r="Y42" t="n">
-        <v>829.6328504884859</v>
+        <v>829.632850488486</v>
       </c>
     </row>
     <row r="43">
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>602.1538777381505</v>
+        <v>140.5684262836281</v>
       </c>
       <c r="C43" t="n">
-        <v>431.060505299867</v>
+        <v>140.5684262836281</v>
       </c>
       <c r="D43" t="n">
-        <v>271.5658606227771</v>
+        <v>140.5684262836281</v>
       </c>
       <c r="E43" t="n">
-        <v>110.6550454910965</v>
+        <v>140.5684262836281</v>
       </c>
       <c r="F43" t="n">
-        <v>110.6550454910965</v>
+        <v>140.5684262836281</v>
       </c>
       <c r="G43" t="n">
         <v>40.73609117563967</v>
@@ -7572,22 +7572,22 @@
         <v>106.5377332703983</v>
       </c>
       <c r="K43" t="n">
-        <v>346.0804177590531</v>
+        <v>213.8128061195727</v>
       </c>
       <c r="L43" t="n">
-        <v>714.7359135444333</v>
+        <v>582.4683019049528</v>
       </c>
       <c r="M43" t="n">
-        <v>1118.670448993012</v>
+        <v>986.4028373535311</v>
       </c>
       <c r="N43" t="n">
-        <v>1511.453102705658</v>
+        <v>1379.185491066177</v>
       </c>
       <c r="O43" t="n">
-        <v>1615.870424989964</v>
+        <v>1742.144385195801</v>
       </c>
       <c r="P43" t="n">
-        <v>1910.020959638669</v>
+        <v>2036.294919844506</v>
       </c>
       <c r="Q43" t="n">
         <v>2036.804558781984</v>
@@ -7605,16 +7605,16 @@
         <v>1344.303102980828</v>
       </c>
       <c r="V43" t="n">
-        <v>1344.303102980828</v>
+        <v>1070.41735792035</v>
       </c>
       <c r="W43" t="n">
-        <v>1065.233438489702</v>
+        <v>791.3476934292244</v>
       </c>
       <c r="X43" t="n">
-        <v>826.8895763493858</v>
+        <v>553.0038312889078</v>
       </c>
       <c r="Y43" t="n">
-        <v>602.1538777381505</v>
+        <v>328.2681326776725</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1066.653618321625</v>
+        <v>1529.21911777035</v>
       </c>
       <c r="C44" t="n">
-        <v>1066.653618321625</v>
+        <v>1119.09452708362</v>
       </c>
       <c r="D44" t="n">
-        <v>763.8713012698054</v>
+        <v>1119.09452708362</v>
       </c>
       <c r="E44" t="n">
-        <v>763.8713012698054</v>
+        <v>891.0339430938509</v>
       </c>
       <c r="F44" t="n">
-        <v>763.8713012698054</v>
+        <v>470.0035310475384</v>
       </c>
       <c r="G44" t="n">
-        <v>356.806947556878</v>
+        <v>62.93917733461107</v>
       </c>
       <c r="H44" t="n">
         <v>62.93917733461107</v>
@@ -7678,22 +7678,22 @@
         <v>1939.440297434839</v>
       </c>
       <c r="T44" t="n">
-        <v>1724.517668682485</v>
+        <v>1939.440297434839</v>
       </c>
       <c r="U44" t="n">
-        <v>1467.590291373535</v>
+        <v>1939.440297434839</v>
       </c>
       <c r="V44" t="n">
-        <v>1467.590291373535</v>
+        <v>1939.440297434839</v>
       </c>
       <c r="W44" t="n">
-        <v>1467.590291373535</v>
+        <v>1939.440297434839</v>
       </c>
       <c r="X44" t="n">
-        <v>1467.590291373535</v>
+        <v>1939.440297434839</v>
       </c>
       <c r="Y44" t="n">
-        <v>1066.653618321625</v>
+        <v>1939.440297434839</v>
       </c>
     </row>
     <row r="45">
@@ -7703,58 +7703,58 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>689.3298178528994</v>
+        <v>689.3298178528993</v>
       </c>
       <c r="C45" t="n">
         <v>555.334746601845</v>
       </c>
       <c r="D45" t="n">
-        <v>438.4375888212375</v>
+        <v>438.4375888212373</v>
       </c>
       <c r="E45" t="n">
-        <v>317.9447728135655</v>
+        <v>317.9447728135654</v>
       </c>
       <c r="F45" t="n">
-        <v>208.98489299607</v>
+        <v>208.9848929960699</v>
       </c>
       <c r="G45" t="n">
-        <v>102.8850615586101</v>
+        <v>102.8850615586102</v>
       </c>
       <c r="H45" t="n">
         <v>40.73609117563967</v>
       </c>
       <c r="I45" t="n">
-        <v>50.44264462921938</v>
+        <v>40.73609117563967</v>
       </c>
       <c r="J45" t="n">
-        <v>82.02532258122318</v>
+        <v>315.9871731022767</v>
       </c>
       <c r="K45" t="n">
-        <v>167.6578536297242</v>
+        <v>401.6197041507777</v>
       </c>
       <c r="L45" t="n">
-        <v>356.3162144894005</v>
+        <v>535.5238390240243</v>
       </c>
       <c r="M45" t="n">
-        <v>860.4253427879414</v>
+        <v>699.6231801808574</v>
       </c>
       <c r="N45" t="n">
-        <v>1364.534471086482</v>
+        <v>873.9012437961603</v>
       </c>
       <c r="O45" t="n">
-        <v>1868.643599385023</v>
+        <v>1378.010372094701</v>
       </c>
       <c r="P45" t="n">
-        <v>1981.54813876298</v>
+        <v>1491.842913253229</v>
       </c>
       <c r="Q45" t="n">
-        <v>2036.804558781984</v>
+        <v>1953.069490276007</v>
       </c>
       <c r="R45" t="n">
         <v>2036.804558781984</v>
       </c>
       <c r="S45" t="n">
-        <v>1945.351132607402</v>
+        <v>1945.351132607401</v>
       </c>
       <c r="T45" t="n">
         <v>1789.597726983432</v>
@@ -7763,16 +7763,16 @@
         <v>1592.305487256401</v>
       </c>
       <c r="V45" t="n">
-        <v>1378.593960249435</v>
+        <v>1378.593960249434</v>
       </c>
       <c r="W45" t="n">
         <v>1165.360791985763</v>
       </c>
       <c r="X45" t="n">
-        <v>989.034810124656</v>
+        <v>989.0348101246559</v>
       </c>
       <c r="Y45" t="n">
-        <v>829.632850488486</v>
+        <v>829.6328504884859</v>
       </c>
     </row>
     <row r="46">
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>465.2244151070693</v>
+        <v>472.2337796124293</v>
       </c>
       <c r="C46" t="n">
-        <v>294.1310426687858</v>
+        <v>301.1404071741458</v>
       </c>
       <c r="D46" t="n">
-        <v>134.6363979916958</v>
+        <v>301.1404071741458</v>
       </c>
       <c r="E46" t="n">
-        <v>134.6363979916958</v>
+        <v>301.1404071741458</v>
       </c>
       <c r="F46" t="n">
-        <v>134.6363979916958</v>
+        <v>301.1404071741458</v>
       </c>
       <c r="G46" t="n">
         <v>134.6363979916958</v>
@@ -7812,10 +7812,10 @@
         <v>346.0804177590531</v>
       </c>
       <c r="L46" t="n">
-        <v>456.1943416991157</v>
+        <v>714.7359135444333</v>
       </c>
       <c r="M46" t="n">
-        <v>860.1288771476941</v>
+        <v>1118.670448993012</v>
       </c>
       <c r="N46" t="n">
         <v>1252.91153086034</v>
@@ -7836,22 +7836,22 @@
         <v>1863.420191452591</v>
       </c>
       <c r="T46" t="n">
-        <v>1863.420191452591</v>
+        <v>1627.06053869514</v>
       </c>
       <c r="U46" t="n">
-        <v>1668.959091804269</v>
+        <v>1344.303102980828</v>
       </c>
       <c r="V46" t="n">
-        <v>1395.073346743791</v>
+        <v>1123.013046758026</v>
       </c>
       <c r="W46" t="n">
-        <v>1116.003682252666</v>
+        <v>1123.013046758026</v>
       </c>
       <c r="X46" t="n">
-        <v>877.6598201123491</v>
+        <v>884.669184617709</v>
       </c>
       <c r="Y46" t="n">
-        <v>652.9241215011137</v>
+        <v>659.9334860064737</v>
       </c>
     </row>
   </sheetData>
@@ -7978,25 +7978,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K2" t="n">
         <v>89.13638967321712</v>
       </c>
       <c r="L2" t="n">
-        <v>485.6381778130617</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M2" t="n">
         <v>483.4430042072623</v>
       </c>
       <c r="N2" t="n">
-        <v>101.9299556837397</v>
+        <v>235.3297339513765</v>
       </c>
       <c r="O2" t="n">
-        <v>93.18977562578313</v>
+        <v>483.342555376</v>
       </c>
       <c r="P2" t="n">
-        <v>483.8021430311011</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q2" t="n">
         <v>414.4388617681339</v>
@@ -8060,19 +8060,19 @@
         <v>246.129700984478</v>
       </c>
       <c r="K3" t="n">
-        <v>55.82578278461539</v>
+        <v>445.9785625348323</v>
       </c>
       <c r="L3" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M3" t="n">
-        <v>273.9673852220582</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N3" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O3" t="n">
-        <v>447.9042587502169</v>
+        <v>244.2964801173478</v>
       </c>
       <c r="P3" t="n">
         <v>444.4124147530206</v>
@@ -8081,7 +8081,7 @@
         <v>410.0708656603775</v>
       </c>
       <c r="R3" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8136,7 +8136,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>65.65794306195595</v>
+        <v>65.65794306195622</v>
       </c>
       <c r="K4" t="n">
         <v>208.3638319047618</v>
@@ -8151,7 +8151,7 @@
         <v>335.3881832803894</v>
       </c>
       <c r="O4" t="n">
-        <v>318.2573327462027</v>
+        <v>318.2573327462026</v>
       </c>
       <c r="P4" t="n">
         <v>263.5328115890082</v>
@@ -8218,28 +8218,28 @@
         <v>330.076592815888</v>
       </c>
       <c r="K5" t="n">
-        <v>479.289169423434</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L5" t="n">
-        <v>278.8691500349403</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M5" t="n">
-        <v>483.4430042072623</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N5" t="n">
-        <v>92.91229075661933</v>
+        <v>235.3297339513765</v>
       </c>
       <c r="O5" t="n">
-        <v>93.18977562578313</v>
+        <v>483.342555376</v>
       </c>
       <c r="P5" t="n">
-        <v>93.64936328088416</v>
+        <v>483.8021430311011</v>
       </c>
       <c r="Q5" t="n">
         <v>414.4388617681339</v>
       </c>
       <c r="R5" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8294,22 +8294,22 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J6" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K6" t="n">
-        <v>55.82578278461539</v>
+        <v>445.9785625348323</v>
       </c>
       <c r="L6" t="n">
-        <v>77.12530772875093</v>
+        <v>242.6595249281969</v>
       </c>
       <c r="M6" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N6" t="n">
-        <v>443.3461731439669</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O6" t="n">
-        <v>447.9042587502169</v>
+        <v>57.751479</v>
       </c>
       <c r="P6" t="n">
         <v>444.4124147530206</v>
@@ -8318,7 +8318,7 @@
         <v>410.0708656603775</v>
       </c>
       <c r="R6" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8373,7 +8373,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>65.65794306195622</v>
+        <v>65.65794306195595</v>
       </c>
       <c r="K7" t="n">
         <v>208.3638319047618</v>
@@ -8452,25 +8452,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K8" t="n">
         <v>479.289169423434</v>
       </c>
       <c r="L8" t="n">
-        <v>95.48539806284482</v>
+        <v>172.155118876367</v>
       </c>
       <c r="M8" t="n">
         <v>483.4430042072623</v>
       </c>
       <c r="N8" t="n">
-        <v>92.91229075661933</v>
+        <v>483.0650705068362</v>
       </c>
       <c r="O8" t="n">
-        <v>426.6124979218853</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P8" t="n">
-        <v>483.8021430311011</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q8" t="n">
         <v>90.03380439915205</v>
@@ -8534,13 +8534,13 @@
         <v>246.129700984478</v>
       </c>
       <c r="K9" t="n">
-        <v>272.2288842682561</v>
+        <v>242.3707839019632</v>
       </c>
       <c r="L9" t="n">
-        <v>56.11452381084905</v>
+        <v>446.2673035610659</v>
       </c>
       <c r="M9" t="n">
-        <v>447.7170634886343</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N9" t="n">
         <v>53.19339339374999</v>
@@ -8555,7 +8555,7 @@
         <v>410.0708656603775</v>
       </c>
       <c r="R9" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8689,7 +8689,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -8698,22 +8698,22 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>96.99747203322079</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>324.8408986308222</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>414.4388617681339</v>
+        <v>377.9221880242271</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8765,13 +8765,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>9.960858985977463</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>348.3830438953435</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8783,16 +8783,16 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>293.7420711818137</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>395.1561504248331</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>410.0708656603775</v>
       </c>
       <c r="R12" t="n">
-        <v>4.27742219293367</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8862,13 +8862,13 @@
         <v>335.3881832803894</v>
       </c>
       <c r="O13" t="n">
-        <v>265.4680617769066</v>
+        <v>318.2573327462026</v>
       </c>
       <c r="P13" t="n">
         <v>263.5328115890082</v>
       </c>
       <c r="Q13" t="n">
-        <v>127.5494547533709</v>
+        <v>74.76018378407454</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -8929,10 +8929,10 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>388.7959253412115</v>
+        <v>388.7959253412114</v>
       </c>
       <c r="L14" t="n">
-        <v>33.04244532283158</v>
+        <v>33.04244532283133</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -9002,19 +9002,19 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>9.960858985977463</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J15" t="n">
         <v>246.129700984478</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>422.7036335858988</v>
       </c>
       <c r="L15" t="n">
-        <v>373.9444378033277</v>
+        <v>335.7502759698222</v>
       </c>
       <c r="M15" t="n">
-        <v>68.82408281884082</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -9026,10 +9026,10 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>410.0708656603775</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>4.27742219293367</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9084,7 +9084,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>65.65794306195595</v>
       </c>
       <c r="K16" t="n">
         <v>208.3638319047618</v>
@@ -9096,10 +9096,10 @@
         <v>348.4508580952379</v>
       </c>
       <c r="N16" t="n">
-        <v>335.3881832803894</v>
+        <v>74.23508040633121</v>
       </c>
       <c r="O16" t="n">
-        <v>122.7621729341008</v>
+        <v>318.2573327462026</v>
       </c>
       <c r="P16" t="n">
         <v>263.5328115890082</v>
@@ -9181,13 +9181,13 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>365.9679850776565</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>140.2326545386321</v>
+        <v>377.9221880242271</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9242,16 +9242,16 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>348.3830438953435</v>
       </c>
       <c r="L18" t="n">
-        <v>251.068515443753</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>343.4442294360685</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -9409,10 +9409,10 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>113.6552076815357</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>308.1831629825071</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
@@ -9421,10 +9421,10 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>414.4388617681339</v>
+        <v>377.9221880242271</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9476,16 +9476,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>9.960858985977463</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K21" t="n">
-        <v>422.7036335858988</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>266.1945880207474</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>348.3830438953436</v>
       </c>
       <c r="Q21" t="n">
         <v>410.0708656603775</v>
       </c>
       <c r="R21" t="n">
-        <v>4.27742219293367</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9558,7 +9558,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>65.65794306195595</v>
       </c>
       <c r="K22" t="n">
         <v>208.3638319047618</v>
@@ -9567,7 +9567,7 @@
         <v>317.1506174091142</v>
       </c>
       <c r="M22" t="n">
-        <v>348.4508580952379</v>
+        <v>87.29775522117976</v>
       </c>
       <c r="N22" t="n">
         <v>335.3881832803894</v>
@@ -9576,10 +9576,10 @@
         <v>318.2573327462026</v>
       </c>
       <c r="P22" t="n">
-        <v>195.587106530277</v>
+        <v>263.5328115890082</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>127.5494547533709</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9637,19 +9637,19 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>319.2028554989039</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>388.7959253412115</v>
       </c>
       <c r="L23" t="n">
-        <v>344.73164902613</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>55.08396883147799</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>308.1831629825071</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -9713,34 +9713,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>9.960858985977463</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J24" t="n">
-        <v>65.11189842425171</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>422.703633585899</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>343.4442294360685</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1626915992304</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>357.2502678074729</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>335.7502759698222</v>
       </c>
       <c r="R24" t="n">
-        <v>4.27742219293367</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9795,16 +9795,16 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>65.65794306195595</v>
       </c>
       <c r="K25" t="n">
-        <v>208.3638319047618</v>
+        <v>74.76018378407463</v>
       </c>
       <c r="L25" t="n">
         <v>317.1506174091142</v>
       </c>
       <c r="M25" t="n">
-        <v>152.9556982831357</v>
+        <v>348.4508580952379</v>
       </c>
       <c r="N25" t="n">
         <v>335.3881832803894</v>
@@ -9816,7 +9816,7 @@
         <v>263.5328115890082</v>
       </c>
       <c r="Q25" t="n">
-        <v>127.5494547533709</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -9874,19 +9874,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K26" t="n">
-        <v>214.8526069564273</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>313.2414624932426</v>
+        <v>91.76177784815485</v>
       </c>
       <c r="N26" t="n">
-        <v>308.1831629825071</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
@@ -9895,7 +9895,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -9950,13 +9950,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>9.960858985977463</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>171.8091112939226</v>
       </c>
       <c r="K27" t="n">
-        <v>346.5626690347181</v>
+        <v>422.7036335858988</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9968,16 +9968,16 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>357.2502678074731</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>395.1561504248331</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R27" t="n">
-        <v>4.27742219293367</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10038,13 +10038,13 @@
         <v>208.3638319047618</v>
       </c>
       <c r="L28" t="n">
-        <v>317.1506174091142</v>
+        <v>55.99751453505615</v>
       </c>
       <c r="M28" t="n">
         <v>348.4508580952379</v>
       </c>
       <c r="N28" t="n">
-        <v>74.23508040633143</v>
+        <v>335.3881832803894</v>
       </c>
       <c r="O28" t="n">
         <v>318.2573327462026</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>330.076592815888</v>
+        <v>293.5599190719813</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -10135,7 +10135,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R29" t="n">
-        <v>91.76177784815488</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10187,13 +10187,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>9.960858985977463</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J30" t="n">
         <v>246.129700984478</v>
       </c>
       <c r="K30" t="n">
-        <v>422.7036335858988</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10202,19 +10202,19 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>34.97960227181389</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>395.1561504248331</v>
+        <v>348.3830438953433</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R30" t="n">
-        <v>4.27742219293367</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10269,7 +10269,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>65.65794306195595</v>
       </c>
       <c r="K31" t="n">
         <v>208.3638319047618</v>
@@ -10278,19 +10278,19 @@
         <v>317.1506174091142</v>
       </c>
       <c r="M31" t="n">
-        <v>348.4508580952379</v>
+        <v>214.8472099745505</v>
       </c>
       <c r="N31" t="n">
         <v>335.3881832803894</v>
       </c>
       <c r="O31" t="n">
-        <v>122.7621729341006</v>
+        <v>318.2573327462026</v>
       </c>
       <c r="P31" t="n">
         <v>263.5328115890082</v>
       </c>
       <c r="Q31" t="n">
-        <v>127.5494547533709</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10351,13 +10351,13 @@
         <v>330.076592815888</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>388.7959253412114</v>
       </c>
       <c r="L32" t="n">
-        <v>192.9591771230462</v>
+        <v>117.4047142750773</v>
       </c>
       <c r="M32" t="n">
-        <v>313.2414624932425</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -10424,13 +10424,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>9.960858985977463</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J33" t="n">
         <v>246.129700984478</v>
       </c>
       <c r="K33" t="n">
-        <v>422.7036335858988</v>
+        <v>348.3830438953432</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10439,19 +10439,19 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>34.97960227181366</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>395.1561504248331</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R33" t="n">
-        <v>4.27742219293367</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -10600,13 +10600,13 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>293.5599190719811</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>414.4388617681339</v>
+        <v>377.9221880242271</v>
       </c>
       <c r="R35" t="n">
         <v>128.2784515920617</v>
@@ -10661,31 +10661,31 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>9.960858985977463</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K36" t="n">
-        <v>422.7036335858988</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>373.9444378033277</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>333.1626915992304</v>
       </c>
       <c r="O36" t="n">
-        <v>217.7401385990326</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>15.22035229611316</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R36" t="n">
         <v>88.85829947169823</v>
@@ -10743,16 +10743,16 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>65.65794306195595</v>
       </c>
       <c r="K37" t="n">
-        <v>140.4181268460304</v>
+        <v>208.3638319047618</v>
       </c>
       <c r="L37" t="n">
         <v>317.1506174091142</v>
       </c>
       <c r="M37" t="n">
-        <v>348.4508580952379</v>
+        <v>87.29775522117976</v>
       </c>
       <c r="N37" t="n">
         <v>335.3881832803894</v>
@@ -10764,7 +10764,7 @@
         <v>263.5328115890082</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>127.5494547533709</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10825,7 +10825,7 @@
         <v>330.076592815888</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>11.95420294657059</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -10840,10 +10840,10 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>365.9679850776565</v>
       </c>
       <c r="Q38" t="n">
-        <v>377.9221880242271</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>128.2784515920617</v>
@@ -10898,34 +10898,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>9.960858985977463</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K39" t="n">
-        <v>27.20601580689191</v>
+        <v>348.3830438953435</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>343.4442294360685</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1626915992304</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>395.1561504248331</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R39" t="n">
-        <v>4.27742219293367</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -10980,10 +10980,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>65.65794306195595</v>
       </c>
       <c r="K40" t="n">
-        <v>208.3638319047618</v>
+        <v>74.76018378407441</v>
       </c>
       <c r="L40" t="n">
         <v>317.1506174091142</v>
@@ -10998,10 +10998,10 @@
         <v>318.2573327462026</v>
       </c>
       <c r="P40" t="n">
-        <v>68.03765177690622</v>
+        <v>263.5328115890082</v>
       </c>
       <c r="Q40" t="n">
-        <v>127.5494547533709</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11062,7 +11062,7 @@
         <v>330.076592815888</v>
       </c>
       <c r="K41" t="n">
-        <v>53.08128939340502</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -11071,19 +11071,19 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>140.2326545386321</v>
       </c>
       <c r="O41" t="n">
-        <v>324.8408986308222</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>365.9679850776565</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>128.2784515920617</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11135,13 +11135,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>9.960858985977463</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K42" t="n">
-        <v>422.7036335858988</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11150,16 +11150,16 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>196.5284259775275</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>395.1561504248331</v>
+        <v>348.3830438953436</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R42" t="n">
         <v>88.85829947169823</v>
@@ -11220,7 +11220,7 @@
         <v>65.65794306195595</v>
       </c>
       <c r="K43" t="n">
-        <v>208.3638319047618</v>
+        <v>74.76018378407441</v>
       </c>
       <c r="L43" t="n">
         <v>317.1506174091142</v>
@@ -11232,13 +11232,13 @@
         <v>335.3881832803894</v>
       </c>
       <c r="O43" t="n">
-        <v>57.10422987214449</v>
+        <v>318.2573327462026</v>
       </c>
       <c r="P43" t="n">
         <v>263.5328115890082</v>
       </c>
       <c r="Q43" t="n">
-        <v>127.5494547533709</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11372,34 +11372,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>19.76545843403778</v>
+        <v>9.960858985977463</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>55.30729897619162</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>343.4442294360685</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1626915992304</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>357.2502678074729</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>0.9373755359309257</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R45" t="n">
-        <v>4.27742219293367</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11460,13 +11460,13 @@
         <v>208.3638319047618</v>
       </c>
       <c r="L46" t="n">
-        <v>55.99751453505615</v>
+        <v>317.1506174091142</v>
       </c>
       <c r="M46" t="n">
         <v>348.4508580952379</v>
       </c>
       <c r="N46" t="n">
-        <v>335.3881832803894</v>
+        <v>74.23508040633121</v>
       </c>
       <c r="O46" t="n">
         <v>318.2573327462026</v>
@@ -22549,19 +22549,19 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C2" t="n">
-        <v>398.4858735987218</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D2" t="n">
-        <v>400.41929060787</v>
+        <v>10.26651085765315</v>
       </c>
       <c r="E2" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F2" t="n">
-        <v>416.8201079258493</v>
+        <v>26.66732817563241</v>
       </c>
       <c r="G2" t="n">
-        <v>404.6410012660961</v>
+        <v>60.9944328621051</v>
       </c>
       <c r="H2" t="n">
         <v>307.7994123985592</v>
@@ -22606,13 +22606,13 @@
         <v>254.489886823085</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X2" t="n">
-        <v>6.484184102520089</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y2" t="n">
         <v>6.774526571173908</v>
@@ -22628,7 +22628,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>132.6551205385437</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -22637,7 +22637,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>51.82404365754713</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -22679,7 +22679,7 @@
         <v>106.9101097868343</v>
       </c>
       <c r="T3" t="n">
-        <v>76.9768631588118</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>195.3773027531635</v>
@@ -22694,7 +22694,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>157.8079400398083</v>
       </c>
     </row>
     <row r="4">
@@ -22704,13 +22704,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -22719,13 +22719,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>66.7941117479435</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22755,7 +22755,7 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S4" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>237.1532516330649</v>
@@ -22770,10 +22770,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X4" t="n">
-        <v>235.9604235189134</v>
+        <v>29.42308910109281</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="5">
@@ -22783,10 +22783,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>15.96618811762767</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C5" t="n">
-        <v>406.0233447798626</v>
+        <v>92.6546201339828</v>
       </c>
       <c r="D5" t="n">
         <v>400.41929060787</v>
@@ -22795,13 +22795,13 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F5" t="n">
-        <v>300.9192552033178</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G5" t="n">
         <v>404.6410012660961</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I5" t="n">
         <v>85.48824505609757</v>
@@ -22834,19 +22834,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>396.636963852737</v>
@@ -22883,7 +22883,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>20.54110546596223</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -22913,7 +22913,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>84.90015143719287</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -22922,10 +22922,10 @@
         <v>195.3773027531635</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W6" t="n">
-        <v>211.1008365810345</v>
+        <v>104.9676817472931</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -22941,7 +22941,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>73.38781057965348</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C7" t="n">
         <v>169.3824387139007</v>
@@ -22956,10 +22956,10 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -22989,10 +22989,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -23004,13 +23004,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>222.4883416251229</v>
+        <v>208.4957071359558</v>
       </c>
     </row>
     <row r="8">
@@ -23020,22 +23020,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>406.1189678678446</v>
+        <v>186.17058202366</v>
       </c>
       <c r="C8" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D8" t="n">
-        <v>10.26651085765315</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E8" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F8" t="n">
-        <v>26.66732817563241</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G8" t="n">
-        <v>14.48822151587922</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H8" t="n">
         <v>307.7994123985592</v>
@@ -23071,7 +23071,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>219.9844192126098</v>
@@ -23083,13 +23083,13 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W8" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>52.99039544874586</v>
+        <v>6.484184102520089</v>
       </c>
       <c r="Y8" t="n">
-        <v>396.9273063213908</v>
+        <v>6.774526571173908</v>
       </c>
     </row>
     <row r="9">
@@ -23102,7 +23102,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>91.81987115582334</v>
       </c>
       <c r="D9" t="n">
         <v>115.7281862028015</v>
@@ -23111,13 +23111,13 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G9" t="n">
         <v>105.9202115588047</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>70.03974083464111</v>
       </c>
       <c r="I9" t="n">
         <v>20.54110546596223</v>
@@ -23150,10 +23150,10 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>106.9101097868343</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>157.7484451748619</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -23162,7 +23162,7 @@
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>5.071338048088819</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -23181,7 +23181,7 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C10" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -23190,16 +23190,16 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>69.38424433753808</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23232,19 +23232,19 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>87.7811551114099</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W10" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>222.4883416251229</v>
@@ -23257,28 +23257,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>26.57333150975188</v>
+        <v>382.1041794561311</v>
       </c>
       <c r="F11" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>402.9937101757981</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>290.9290925200442</v>
       </c>
       <c r="I11" t="n">
-        <v>21.98105529738169</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,10 +23308,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>96.39061873367314</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>212.77340246483</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>254.3581035358611</v>
@@ -23320,10 +23320,10 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X11" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>396.9273063213908</v>
@@ -23415,25 +23415,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>18.80183724181782</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>164.8389690906254</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>141.5417272291555</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>51.19554760057107</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23472,19 +23472,19 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>279.9298613571687</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>171.3794760373601</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="14">
@@ -23497,16 +23497,16 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C14" t="n">
-        <v>373.2556317047976</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23545,22 +23545,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>96.39061873367314</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>212.77340246483</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>254.3581035358611</v>
       </c>
       <c r="V14" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>396.636963852737</v>
+        <v>171.8589370872509</v>
       </c>
       <c r="Y14" t="n">
         <v>396.9273063213908</v>
@@ -23655,22 +23655,22 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>32.97402291582357</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>164.8389690906254</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>141.5417272291555</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23703,25 +23703,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>37.68048548265065</v>
+        <v>171.6505236560984</v>
       </c>
       <c r="T16" t="n">
-        <v>233.9960562298768</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23734,16 +23734,16 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C17" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -23782,7 +23782,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>96.39061873367314</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>212.77340246483</v>
@@ -23791,16 +23791,16 @@
         <v>254.3581035358611</v>
       </c>
       <c r="V17" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>396.636963852737</v>
+        <v>365.1088794022833</v>
       </c>
       <c r="Y17" t="n">
-        <v>364.159593246326</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="18">
@@ -23892,25 +23892,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E19" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>164.8389690906254</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>141.5417272291555</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>43.0547546493605</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23943,7 +23943,7 @@
         <v>171.6505236560984</v>
       </c>
       <c r="T19" t="n">
-        <v>233.9960562298768</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23955,10 +23955,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>44.45312726107488</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23968,25 +23968,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E20" t="n">
-        <v>276.3963081234384</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>402.9937101757981</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>290.9290925200442</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24022,7 +24022,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>212.77340246483</v>
       </c>
       <c r="U20" t="n">
         <v>254.3581035358611</v>
@@ -24037,7 +24037,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y20" t="n">
-        <v>396.9273063213908</v>
+        <v>178.3504313239937</v>
       </c>
     </row>
     <row r="21">
@@ -24126,25 +24126,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>35.89616090677416</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F22" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G22" t="n">
-        <v>52.70759989182943</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>141.5417272291555</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>92.96130374789561</v>
@@ -24174,19 +24174,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>51.19554760057107</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>171.6505236560984</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>279.9298613571687</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24205,16 +24205,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>353.4584531883212</v>
       </c>
       <c r="F23" t="n">
         <v>416.8201079258493</v>
@@ -24223,10 +24223,10 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>30.84508721523974</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>21.98105529738169</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24256,7 +24256,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>96.39061873367314</v>
       </c>
       <c r="T23" t="n">
         <v>212.77340246483</v>
@@ -24274,7 +24274,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y23" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>185.8227093301039</v>
+        <v>45.32283959155805</v>
       </c>
       <c r="C25" t="n">
         <v>169.3824387139007</v>
@@ -24375,13 +24375,13 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>164.8389690906254</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>141.5417272291555</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24429,10 +24429,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>106.377299586627</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24442,22 +24442,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>52.1987315848574</v>
       </c>
       <c r="D26" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E26" t="n">
-        <v>59.97875729293895</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G26" t="n">
-        <v>402.9937101757981</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>290.9290925200442</v>
@@ -24493,7 +24493,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>96.39061873367314</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>212.77340246483</v>
@@ -24502,16 +24502,16 @@
         <v>254.3581035358611</v>
       </c>
       <c r="V26" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="27">
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>169.3824387139007</v>
@@ -24612,10 +24612,10 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G28" t="n">
-        <v>94.36261023469855</v>
+        <v>66.00495733371689</v>
       </c>
       <c r="H28" t="n">
         <v>141.5417272291555</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>51.19554760057107</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24679,25 +24679,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D29" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>35.2851040381654</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>66.04516114734628</v>
+        <v>402.9937101757981</v>
       </c>
       <c r="H29" t="n">
-        <v>290.9290925200442</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>21.98105529738169</v>
@@ -24730,7 +24730,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>96.39061873367314</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>212.77340246483</v>
@@ -24745,7 +24745,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X29" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>396.9273063213908</v>
@@ -24837,10 +24837,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>127.225323068259</v>
       </c>
       <c r="D31" t="n">
         <v>157.8996982303191</v>
@@ -24849,16 +24849,16 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F31" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>112.774923670013</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>141.5417272291555</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>92.96130374789561</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>51.19554760057107</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24897,7 +24897,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24916,28 +24916,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>402.9937101757981</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>290.9290925200442</v>
       </c>
       <c r="I32" t="n">
-        <v>21.98105529738169</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24970,22 +24970,22 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>212.77340246483</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>254.3581035358611</v>
+        <v>219.3287263875683</v>
       </c>
       <c r="V32" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W32" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y32" t="n">
-        <v>139.9685587086329</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="33">
@@ -25083,16 +25083,16 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>159.3017069803637</v>
+        <v>48.83047045585829</v>
       </c>
       <c r="F34" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>164.8389690906254</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>141.5417272291555</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25122,28 +25122,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>51.19554760057107</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>171.6505236560984</v>
       </c>
       <c r="T34" t="n">
-        <v>96.32600868956357</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W34" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="35">
@@ -25153,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -25168,13 +25168,13 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>66.04516114734628</v>
+        <v>402.9937101757981</v>
       </c>
       <c r="H35" t="n">
         <v>290.9290925200442</v>
       </c>
       <c r="I35" t="n">
-        <v>21.98105529738169</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25204,13 +25204,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>96.39061873367314</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>212.77340246483</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>254.3581035358611</v>
+        <v>239.0726269881865</v>
       </c>
       <c r="V35" t="n">
         <v>346.3391791168841</v>
@@ -25219,7 +25219,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X35" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>396.9273063213908</v>
@@ -25311,10 +25311,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D37" t="n">
         <v>157.8996982303191</v>
@@ -25326,7 +25326,7 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G37" t="n">
-        <v>100.7602343180848</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>141.5417272291555</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>51.19554760057107</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>66.00495733371707</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25390,25 +25390,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C38" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D38" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F38" t="n">
-        <v>282.0959853834128</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>402.9937101757981</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>290.9290925200442</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25441,25 +25441,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>62.50932885583945</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>212.77340246483</v>
       </c>
       <c r="U38" t="n">
         <v>254.3581035358611</v>
       </c>
       <c r="V38" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25548,13 +25548,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>59.98621726111728</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>92.96130374789561</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>51.19554760057107</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25605,19 +25605,19 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>279.9298613571687</v>
       </c>
       <c r="V40" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W40" t="n">
-        <v>276.2789678462144</v>
+        <v>83.55025252580555</v>
       </c>
       <c r="X40" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="41">
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C41" t="n">
         <v>406.0233447798626</v>
@@ -25645,10 +25645,10 @@
         <v>402.9937101757981</v>
       </c>
       <c r="H41" t="n">
-        <v>290.9290925200442</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>21.98105529738169</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25681,22 +25681,22 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>212.77340246483</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>254.3581035358611</v>
       </c>
       <c r="V41" t="n">
-        <v>76.50206629052133</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W41" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>229.6501674442316</v>
       </c>
     </row>
     <row r="42">
@@ -25785,22 +25785,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F43" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G43" t="n">
-        <v>95.61920431832314</v>
+        <v>66.00495733371689</v>
       </c>
       <c r="H43" t="n">
         <v>141.5417272291555</v>
@@ -25845,7 +25845,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25864,25 +25864,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>100.6647967265687</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E44" t="n">
-        <v>410.1968133282722</v>
+        <v>184.4168351784012</v>
       </c>
       <c r="F44" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>290.9290925200442</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25918,10 +25918,10 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>212.77340246483</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>254.3581035358611</v>
       </c>
       <c r="V44" t="n">
         <v>346.3391791168841</v>
@@ -25933,7 +25933,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="45">
@@ -26028,7 +26028,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E46" t="n">
         <v>159.3017069803637</v>
@@ -26037,7 +26037,7 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G46" t="n">
-        <v>164.8389690906254</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>141.5417272291555</v>
@@ -26076,16 +26076,16 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>233.9960562298768</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>87.41337270532989</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>52.06973194929893</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>470266.2963835333</v>
+        <v>470266.2963835332</v>
       </c>
     </row>
     <row r="4">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>528323.3187569496</v>
+        <v>528323.3187569495</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>528323.3187569496</v>
+        <v>528323.3187569494</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>528323.3187569496</v>
+        <v>528323.3187569495</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>528323.3187569496</v>
+        <v>528323.3187569495</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>528323.3187569497</v>
+        <v>528323.3187569495</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>528323.3187569495</v>
+        <v>528323.3187569494</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>528323.3187569496</v>
+        <v>528323.3187569495</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>528323.3187569495</v>
+        <v>528323.3187569494</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>528323.3187569495</v>
+        <v>528323.3187569496</v>
       </c>
     </row>
   </sheetData>
@@ -26313,16 +26313,16 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>166983.5275664079</v>
+      </c>
+      <c r="C2" t="n">
         <v>166983.527566408</v>
-      </c>
-      <c r="C2" t="n">
-        <v>166983.5275664079</v>
       </c>
       <c r="D2" t="n">
         <v>166983.527566408</v>
       </c>
       <c r="E2" t="n">
-        <v>209803.8069198115</v>
+        <v>209803.8069198114</v>
       </c>
       <c r="F2" t="n">
         <v>209803.8069198114</v>
@@ -26340,16 +26340,16 @@
         <v>209803.8069198114</v>
       </c>
       <c r="K2" t="n">
-        <v>209803.8069198115</v>
+        <v>209803.8069198114</v>
       </c>
       <c r="L2" t="n">
-        <v>209803.8069198114</v>
+        <v>209803.8069198113</v>
       </c>
       <c r="M2" t="n">
         <v>209803.8069198114</v>
       </c>
       <c r="N2" t="n">
-        <v>209803.8069198114</v>
+        <v>209803.8069198113</v>
       </c>
       <c r="O2" t="n">
         <v>209803.8069198114</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>29667.3274918033</v>
+        <v>29667.32749180331</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>80976.38696934922</v>
+        <v>80976.3869693492</v>
       </c>
       <c r="C4" t="n">
         <v>80976.3869693492</v>
@@ -26426,22 +26426,22 @@
         <v>80976.3869693492</v>
       </c>
       <c r="E4" t="n">
-        <v>39222.65715052697</v>
+        <v>39222.65715052695</v>
       </c>
       <c r="F4" t="n">
+        <v>39222.65715052695</v>
+      </c>
+      <c r="G4" t="n">
         <v>39222.65715052696</v>
-      </c>
-      <c r="G4" t="n">
-        <v>39222.65715052695</v>
       </c>
       <c r="H4" t="n">
         <v>39222.65715052695</v>
       </c>
       <c r="I4" t="n">
+        <v>39222.65715052697</v>
+      </c>
+      <c r="J4" t="n">
         <v>39222.65715052695</v>
-      </c>
-      <c r="J4" t="n">
-        <v>39222.65715052696</v>
       </c>
       <c r="K4" t="n">
         <v>39222.65715052695</v>
@@ -26453,13 +26453,13 @@
         <v>39222.65715052695</v>
       </c>
       <c r="N4" t="n">
+        <v>39222.65715052696</v>
+      </c>
+      <c r="O4" t="n">
         <v>39222.65715052695</v>
       </c>
-      <c r="O4" t="n">
-        <v>39222.65715052697</v>
-      </c>
       <c r="P4" t="n">
-        <v>39222.65715052696</v>
+        <v>39222.65715052695</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-102090.9184199864</v>
+        <v>-102924.5826952328</v>
       </c>
       <c r="C6" t="n">
-        <v>28658.25158824548</v>
+        <v>27824.58731299913</v>
       </c>
       <c r="D6" t="n">
-        <v>28658.25158824556</v>
+        <v>27824.58731299916</v>
       </c>
       <c r="E6" t="n">
-        <v>-234061.7011997661</v>
+        <v>-234691.4593828536</v>
       </c>
       <c r="F6" t="n">
-        <v>130688.8727158845</v>
+        <v>130059.1145327971</v>
       </c>
       <c r="G6" t="n">
-        <v>130688.8727158845</v>
+        <v>130059.1145327971</v>
       </c>
       <c r="H6" t="n">
-        <v>130688.8727158845</v>
+        <v>130059.1145327971</v>
       </c>
       <c r="I6" t="n">
-        <v>130688.8727158845</v>
+        <v>130059.1145327971</v>
       </c>
       <c r="J6" t="n">
-        <v>28607.73881091879</v>
+        <v>27977.98062783133</v>
       </c>
       <c r="K6" t="n">
-        <v>130688.8727158846</v>
+        <v>130059.1145327972</v>
       </c>
       <c r="L6" t="n">
-        <v>130688.8727158846</v>
+        <v>130059.114532797</v>
       </c>
       <c r="M6" t="n">
-        <v>101021.5452240812</v>
+        <v>100391.7870409938</v>
       </c>
       <c r="N6" t="n">
-        <v>130688.8727158845</v>
+        <v>130059.114532797</v>
       </c>
       <c r="O6" t="n">
-        <v>130688.8727158845</v>
+        <v>130059.1145327971</v>
       </c>
       <c r="P6" t="n">
-        <v>130688.8727158845</v>
+        <v>130059.1145327971</v>
       </c>
     </row>
   </sheetData>
@@ -26798,10 +26798,10 @@
         <v>390.1527797502169</v>
       </c>
       <c r="E4" t="n">
-        <v>509.201139695496</v>
+        <v>509.2011396954959</v>
       </c>
       <c r="F4" t="n">
-        <v>509.201139695496</v>
+        <v>509.2011396954959</v>
       </c>
       <c r="G4" t="n">
         <v>509.2011396954959</v>
@@ -26810,10 +26810,10 @@
         <v>509.2011396954959</v>
       </c>
       <c r="I4" t="n">
+        <v>509.201139695496</v>
+      </c>
+      <c r="J4" t="n">
         <v>509.2011396954959</v>
-      </c>
-      <c r="J4" t="n">
-        <v>509.201139695496</v>
       </c>
       <c r="K4" t="n">
         <v>509.2011396954959</v>
@@ -34698,25 +34698,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>390.1527797502169</v>
       </c>
       <c r="N2" t="n">
-        <v>9.017664927120396</v>
+        <v>142.4174431947572</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="P2" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>324.4050573689818</v>
@@ -34780,19 +34780,19 @@
         <v>194.760462184478</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>216.4031014836407</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>390.1527797502169</v>
+        <v>186.5450011173479</v>
       </c>
       <c r="P3" t="n">
         <v>390.1527797502169</v>
@@ -34801,7 +34801,7 @@
         <v>353.3782471555388</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34856,7 +34856,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>14.22479737900053</v>
+        <v>14.22479737900079</v>
       </c>
       <c r="K4" t="n">
         <v>156.1134623456949</v>
@@ -34871,7 +34871,7 @@
         <v>283.67553777197</v>
       </c>
       <c r="O4" t="n">
-        <v>262.1824346732063</v>
+        <v>262.1824346732062</v>
       </c>
       <c r="P4" t="n">
         <v>207.7529699491034</v>
@@ -34938,28 +34938,28 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>142.4174431947572</v>
+      </c>
+      <c r="O5" t="n">
         <v>390.1527797502169</v>
       </c>
-      <c r="L5" t="n">
-        <v>183.3837519720955</v>
-      </c>
-      <c r="M5" t="n">
+      <c r="P5" t="n">
         <v>390.1527797502169</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>324.4050573689818</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,22 +35014,22 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="L6" t="n">
-        <v>21.01078391790188</v>
+        <v>186.5450011173479</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>390.1527797502169</v>
@@ -35038,7 +35038,7 @@
         <v>353.3782471555388</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35093,7 +35093,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>14.22479737900079</v>
+        <v>14.22479737900053</v>
       </c>
       <c r="K7" t="n">
         <v>156.1134623456949</v>
@@ -35172,25 +35172,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K8" t="n">
         <v>390.1527797502169</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>76.66972081352215</v>
       </c>
       <c r="M8" t="n">
         <v>390.1527797502169</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="O8" t="n">
-        <v>333.4227222961022</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35254,13 +35254,13 @@
         <v>194.760462184478</v>
       </c>
       <c r="K9" t="n">
-        <v>216.4031014836407</v>
+        <v>186.5450011173478</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="M9" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -35275,7 +35275,7 @@
         <v>353.3782471555388</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35409,7 +35409,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>66.48818084187684</v>
+        <v>396.5647736577649</v>
       </c>
       <c r="K11" t="n">
         <v>120.4052143542844</v>
@@ -35418,22 +35418,22 @@
         <v>164.4694906693659</v>
       </c>
       <c r="M11" t="n">
-        <v>292.9571492354742</v>
+        <v>195.9596772022534</v>
       </c>
       <c r="N11" t="n">
         <v>201.0179767129889</v>
       </c>
       <c r="O11" t="n">
-        <v>509.201139695496</v>
+        <v>184.3602410646737</v>
       </c>
       <c r="P11" t="n">
         <v>143.2331546178394</v>
       </c>
       <c r="Q11" t="n">
-        <v>502.2939630964062</v>
+        <v>465.7772893524995</v>
       </c>
       <c r="R11" t="n">
-        <v>16.16450613621186</v>
+        <v>144.4429577282736</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,13 +35485,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>9.804599448060312</v>
       </c>
       <c r="J12" t="n">
-        <v>31.90169490101393</v>
+        <v>278.031395885492</v>
       </c>
       <c r="K12" t="n">
-        <v>86.49750610959703</v>
+        <v>434.8805500049405</v>
       </c>
       <c r="L12" t="n">
         <v>135.2567018921682</v>
@@ -35503,16 +35503,16 @@
         <v>176.0384480962656</v>
       </c>
       <c r="O12" t="n">
-        <v>445.6929430698366</v>
+        <v>151.950871888023</v>
       </c>
       <c r="P12" t="n">
-        <v>509.201139695496</v>
+        <v>114.0449892706629</v>
       </c>
       <c r="Q12" t="n">
         <v>465.885431336139</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>84.58087727876456</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35582,13 +35582,13 @@
         <v>396.750155265299</v>
       </c>
       <c r="O13" t="n">
-        <v>313.8358746161825</v>
+        <v>366.6251455854785</v>
       </c>
       <c r="P13" t="n">
         <v>297.1217521704096</v>
       </c>
       <c r="Q13" t="n">
-        <v>128.0642415589032</v>
+        <v>75.27497058960688</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35649,10 +35649,10 @@
         <v>66.48818084187684</v>
       </c>
       <c r="K14" t="n">
-        <v>509.201139695496</v>
+        <v>509.2011396954959</v>
       </c>
       <c r="L14" t="n">
-        <v>197.5119359921975</v>
+        <v>197.5119359921973</v>
       </c>
       <c r="M14" t="n">
         <v>195.9596772022534</v>
@@ -35722,19 +35722,19 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>9.804599448060312</v>
       </c>
       <c r="J15" t="n">
         <v>278.031395885492</v>
       </c>
       <c r="K15" t="n">
-        <v>86.49750610959703</v>
+        <v>509.2011396954959</v>
       </c>
       <c r="L15" t="n">
-        <v>509.201139695496</v>
+        <v>471.0069778619904</v>
       </c>
       <c r="M15" t="n">
-        <v>234.5809930782682</v>
+        <v>165.7569102594273</v>
       </c>
       <c r="N15" t="n">
         <v>176.0384480962656</v>
@@ -35746,10 +35746,10 @@
         <v>114.0449892706629</v>
       </c>
       <c r="Q15" t="n">
-        <v>465.885431336139</v>
+        <v>55.81456567576151</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>84.58087727876456</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0.8083620842648713</v>
+        <v>66.46630514622082</v>
       </c>
       <c r="K16" t="n">
         <v>241.9623075642979</v>
@@ -35816,10 +35816,10 @@
         <v>408.0146822712912</v>
       </c>
       <c r="N16" t="n">
-        <v>396.750155265299</v>
+        <v>135.5970523912408</v>
       </c>
       <c r="O16" t="n">
-        <v>171.1299857733767</v>
+        <v>366.6251455854785</v>
       </c>
       <c r="P16" t="n">
         <v>297.1217521704096</v>
@@ -35901,13 +35901,13 @@
         <v>184.3602410646737</v>
       </c>
       <c r="P17" t="n">
-        <v>509.2011396954959</v>
+        <v>143.2331546178394</v>
       </c>
       <c r="Q17" t="n">
-        <v>228.0877558669044</v>
+        <v>465.7772893524995</v>
       </c>
       <c r="R17" t="n">
-        <v>16.16450613621186</v>
+        <v>144.4429577282736</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,16 +35962,16 @@
         <v>9.804599448060312</v>
       </c>
       <c r="J18" t="n">
-        <v>31.90169490101393</v>
+        <v>278.031395885492</v>
       </c>
       <c r="K18" t="n">
-        <v>86.49750610959703</v>
+        <v>434.8805500049405</v>
       </c>
       <c r="L18" t="n">
-        <v>386.3252173359212</v>
+        <v>135.2567018921682</v>
       </c>
       <c r="M18" t="n">
-        <v>509.2011396954959</v>
+        <v>165.7569102594273</v>
       </c>
       <c r="N18" t="n">
         <v>176.0384480962656</v>
@@ -36120,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>66.48818084187684</v>
+        <v>396.5647736577649</v>
       </c>
       <c r="K20" t="n">
         <v>120.4052143542844</v>
@@ -36129,10 +36129,10 @@
         <v>164.4694906693659</v>
       </c>
       <c r="M20" t="n">
-        <v>309.614884883789</v>
+        <v>195.9596772022534</v>
       </c>
       <c r="N20" t="n">
-        <v>509.2011396954959</v>
+        <v>201.0179767129889</v>
       </c>
       <c r="O20" t="n">
         <v>184.3602410646737</v>
@@ -36141,10 +36141,10 @@
         <v>143.2331546178394</v>
       </c>
       <c r="Q20" t="n">
-        <v>502.2939630964062</v>
+        <v>465.7772893524995</v>
       </c>
       <c r="R20" t="n">
-        <v>16.16450613621186</v>
+        <v>144.4429577282736</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,16 +36196,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>9.804599448060312</v>
       </c>
       <c r="J21" t="n">
-        <v>31.90169490101393</v>
+        <v>278.031395885492</v>
       </c>
       <c r="K21" t="n">
-        <v>509.2011396954959</v>
+        <v>86.49750610959703</v>
       </c>
       <c r="L21" t="n">
-        <v>401.4512899129156</v>
+        <v>135.2567018921682</v>
       </c>
       <c r="M21" t="n">
         <v>165.7569102594273</v>
@@ -36217,13 +36217,13 @@
         <v>151.950871888023</v>
       </c>
       <c r="P21" t="n">
-        <v>114.0449892706629</v>
+        <v>462.4280331660065</v>
       </c>
       <c r="Q21" t="n">
         <v>465.885431336139</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>84.58087727876456</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0.8083620842648713</v>
+        <v>66.46630514622082</v>
       </c>
       <c r="K22" t="n">
         <v>241.9623075642979</v>
@@ -36287,7 +36287,7 @@
         <v>372.3792886721011</v>
       </c>
       <c r="M22" t="n">
-        <v>408.0146822712912</v>
+        <v>146.8615793972331</v>
       </c>
       <c r="N22" t="n">
         <v>396.750155265299</v>
@@ -36296,10 +36296,10 @@
         <v>366.6251455854785</v>
       </c>
       <c r="P22" t="n">
-        <v>229.1760471116784</v>
+        <v>297.1217521704096</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.5147868055323457</v>
+        <v>128.0642415589032</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,19 +36357,19 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>66.48818084187684</v>
+        <v>385.6910363407808</v>
       </c>
       <c r="K23" t="n">
-        <v>120.4052143542844</v>
+        <v>509.201139695496</v>
       </c>
       <c r="L23" t="n">
-        <v>509.2011396954959</v>
+        <v>164.4694906693659</v>
       </c>
       <c r="M23" t="n">
-        <v>251.0436460337314</v>
+        <v>195.9596772022534</v>
       </c>
       <c r="N23" t="n">
-        <v>509.2011396954959</v>
+        <v>201.0179767129889</v>
       </c>
       <c r="O23" t="n">
         <v>184.3602410646737</v>
@@ -36433,34 +36433,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>9.804599448060312</v>
       </c>
       <c r="J24" t="n">
-        <v>97.01359332526565</v>
+        <v>278.031395885492</v>
       </c>
       <c r="K24" t="n">
-        <v>86.49750610959703</v>
+        <v>509.201139695496</v>
       </c>
       <c r="L24" t="n">
         <v>135.2567018921682</v>
       </c>
       <c r="M24" t="n">
-        <v>509.2011396954959</v>
+        <v>165.7569102594273</v>
       </c>
       <c r="N24" t="n">
-        <v>509.2011396954959</v>
+        <v>176.0384480962656</v>
       </c>
       <c r="O24" t="n">
-        <v>509.2011396954959</v>
+        <v>151.950871888023</v>
       </c>
       <c r="P24" t="n">
         <v>114.0449892706629</v>
       </c>
       <c r="Q24" t="n">
-        <v>55.81456567576151</v>
+        <v>391.5648416455837</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>84.58087727876456</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,16 +36515,16 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0.8083620842648713</v>
+        <v>66.46630514622082</v>
       </c>
       <c r="K25" t="n">
-        <v>241.9623075642979</v>
+        <v>108.3586594436108</v>
       </c>
       <c r="L25" t="n">
         <v>372.3792886721011</v>
       </c>
       <c r="M25" t="n">
-        <v>212.5195224591891</v>
+        <v>408.0146822712912</v>
       </c>
       <c r="N25" t="n">
         <v>396.750155265299</v>
@@ -36536,7 +36536,7 @@
         <v>297.1217521704096</v>
       </c>
       <c r="Q25" t="n">
-        <v>128.0642415589032</v>
+        <v>0.5147868055323457</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,19 +36594,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>66.48818084187684</v>
+        <v>396.5647736577649</v>
       </c>
       <c r="K26" t="n">
-        <v>335.2578213107117</v>
+        <v>120.4052143542844</v>
       </c>
       <c r="L26" t="n">
         <v>164.4694906693659</v>
       </c>
       <c r="M26" t="n">
-        <v>509.201139695496</v>
+        <v>287.7214550504082</v>
       </c>
       <c r="N26" t="n">
-        <v>509.201139695496</v>
+        <v>201.0179767129889</v>
       </c>
       <c r="O26" t="n">
         <v>184.3602410646737</v>
@@ -36615,7 +36615,7 @@
         <v>143.2331546178394</v>
       </c>
       <c r="Q26" t="n">
-        <v>87.8551013282723</v>
+        <v>502.2939630964062</v>
       </c>
       <c r="R26" t="n">
         <v>16.16450613621186</v>
@@ -36670,13 +36670,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>9.804599448060312</v>
       </c>
       <c r="J27" t="n">
-        <v>31.90169490101393</v>
+        <v>203.7108061949365</v>
       </c>
       <c r="K27" t="n">
-        <v>433.0601751443151</v>
+        <v>509.2011396954959</v>
       </c>
       <c r="L27" t="n">
         <v>135.2567018921682</v>
@@ -36688,16 +36688,16 @@
         <v>176.0384480962656</v>
       </c>
       <c r="O27" t="n">
-        <v>509.201139695496</v>
+        <v>151.950871888023</v>
       </c>
       <c r="P27" t="n">
-        <v>509.201139695496</v>
+        <v>114.0449892706629</v>
       </c>
       <c r="Q27" t="n">
-        <v>55.81456567576151</v>
+        <v>465.885431336139</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>84.58087727876456</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36758,13 +36758,13 @@
         <v>241.9623075642979</v>
       </c>
       <c r="L28" t="n">
-        <v>372.3792886721011</v>
+        <v>111.226185798043</v>
       </c>
       <c r="M28" t="n">
         <v>408.0146822712912</v>
       </c>
       <c r="N28" t="n">
-        <v>135.597052391241</v>
+        <v>396.750155265299</v>
       </c>
       <c r="O28" t="n">
         <v>366.6251455854785</v>
@@ -36831,7 +36831,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>396.5647736577649</v>
+        <v>360.0480999138582</v>
       </c>
       <c r="K29" t="n">
         <v>120.4052143542844</v>
@@ -36855,7 +36855,7 @@
         <v>502.2939630964062</v>
       </c>
       <c r="R29" t="n">
-        <v>107.9262839843667</v>
+        <v>144.4429577282736</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,13 +36907,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>9.804599448060312</v>
       </c>
       <c r="J30" t="n">
         <v>278.031395885492</v>
       </c>
       <c r="K30" t="n">
-        <v>509.2011396954959</v>
+        <v>86.49750610959703</v>
       </c>
       <c r="L30" t="n">
         <v>135.2567018921682</v>
@@ -36922,19 +36922,19 @@
         <v>165.7569102594273</v>
       </c>
       <c r="N30" t="n">
-        <v>211.0180503680795</v>
+        <v>176.0384480962656</v>
       </c>
       <c r="O30" t="n">
         <v>151.950871888023</v>
       </c>
       <c r="P30" t="n">
-        <v>509.2011396954959</v>
+        <v>462.4280331660062</v>
       </c>
       <c r="Q30" t="n">
-        <v>55.81456567576151</v>
+        <v>465.885431336139</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>84.58087727876456</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0.8083620842648713</v>
+        <v>66.46630514622082</v>
       </c>
       <c r="K31" t="n">
         <v>241.9623075642979</v>
@@ -36998,19 +36998,19 @@
         <v>372.3792886721011</v>
       </c>
       <c r="M31" t="n">
-        <v>408.0146822712912</v>
+        <v>274.4110341506039</v>
       </c>
       <c r="N31" t="n">
         <v>396.750155265299</v>
       </c>
       <c r="O31" t="n">
-        <v>171.1299857733765</v>
+        <v>366.6251455854785</v>
       </c>
       <c r="P31" t="n">
         <v>297.1217521704096</v>
       </c>
       <c r="Q31" t="n">
-        <v>128.0642415589032</v>
+        <v>0.5147868055323457</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37071,13 +37071,13 @@
         <v>396.5647736577649</v>
       </c>
       <c r="K32" t="n">
-        <v>120.4052143542844</v>
+        <v>509.2011396954959</v>
       </c>
       <c r="L32" t="n">
-        <v>357.4286677924121</v>
+        <v>281.8742049444432</v>
       </c>
       <c r="M32" t="n">
-        <v>509.2011396954959</v>
+        <v>195.9596772022534</v>
       </c>
       <c r="N32" t="n">
         <v>201.0179767129889</v>
@@ -37144,13 +37144,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>9.804599448060312</v>
       </c>
       <c r="J33" t="n">
         <v>278.031395885492</v>
       </c>
       <c r="K33" t="n">
-        <v>509.2011396954959</v>
+        <v>434.8805500049403</v>
       </c>
       <c r="L33" t="n">
         <v>135.2567018921682</v>
@@ -37159,19 +37159,19 @@
         <v>165.7569102594273</v>
       </c>
       <c r="N33" t="n">
-        <v>211.0180503680792</v>
+        <v>176.0384480962656</v>
       </c>
       <c r="O33" t="n">
         <v>151.950871888023</v>
       </c>
       <c r="P33" t="n">
-        <v>509.2011396954959</v>
+        <v>114.0449892706629</v>
       </c>
       <c r="Q33" t="n">
-        <v>55.81456567576151</v>
+        <v>465.885431336139</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>84.58087727876456</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37305,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>66.48818084187684</v>
+        <v>396.5647736577649</v>
       </c>
       <c r="K35" t="n">
         <v>120.4052143542844</v>
@@ -37320,13 +37320,13 @@
         <v>201.0179767129889</v>
       </c>
       <c r="O35" t="n">
-        <v>477.9201601366548</v>
+        <v>184.3602410646737</v>
       </c>
       <c r="P35" t="n">
         <v>143.2331546178394</v>
       </c>
       <c r="Q35" t="n">
-        <v>502.2939630964062</v>
+        <v>465.7772893524995</v>
       </c>
       <c r="R35" t="n">
         <v>144.4429577282736</v>
@@ -37381,31 +37381,31 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>9.804599448060312</v>
       </c>
       <c r="J36" t="n">
-        <v>31.90169490101393</v>
+        <v>278.031395885492</v>
       </c>
       <c r="K36" t="n">
-        <v>509.2011396954959</v>
+        <v>86.49750610959703</v>
       </c>
       <c r="L36" t="n">
-        <v>509.2011396954959</v>
+        <v>135.2567018921682</v>
       </c>
       <c r="M36" t="n">
         <v>165.7569102594273</v>
       </c>
       <c r="N36" t="n">
-        <v>176.0384480962656</v>
+        <v>509.2011396954959</v>
       </c>
       <c r="O36" t="n">
-        <v>369.6910104870556</v>
+        <v>151.950871888023</v>
       </c>
       <c r="P36" t="n">
-        <v>114.0449892706629</v>
+        <v>129.265341566776</v>
       </c>
       <c r="Q36" t="n">
-        <v>55.81456567576151</v>
+        <v>465.885431336139</v>
       </c>
       <c r="R36" t="n">
         <v>84.58087727876456</v>
@@ -37463,16 +37463,16 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0.8083620842648713</v>
+        <v>66.46630514622082</v>
       </c>
       <c r="K37" t="n">
-        <v>174.0166025055665</v>
+        <v>241.9623075642979</v>
       </c>
       <c r="L37" t="n">
         <v>372.3792886721011</v>
       </c>
       <c r="M37" t="n">
-        <v>408.0146822712912</v>
+        <v>146.8615793972331</v>
       </c>
       <c r="N37" t="n">
         <v>396.750155265299</v>
@@ -37484,7 +37484,7 @@
         <v>297.1217521704096</v>
       </c>
       <c r="Q37" t="n">
-        <v>0.5147868055323457</v>
+        <v>128.0642415589032</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,7 +37545,7 @@
         <v>396.5647736577649</v>
       </c>
       <c r="K38" t="n">
-        <v>120.4052143542844</v>
+        <v>132.359417300855</v>
       </c>
       <c r="L38" t="n">
         <v>164.4694906693659</v>
@@ -37560,10 +37560,10 @@
         <v>184.3602410646737</v>
       </c>
       <c r="P38" t="n">
-        <v>143.2331546178394</v>
+        <v>509.2011396954959</v>
       </c>
       <c r="Q38" t="n">
-        <v>465.7772893524995</v>
+        <v>87.8551013282723</v>
       </c>
       <c r="R38" t="n">
         <v>144.4429577282736</v>
@@ -37618,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>9.804599448060312</v>
       </c>
       <c r="J39" t="n">
-        <v>31.90169490101393</v>
+        <v>278.031395885492</v>
       </c>
       <c r="K39" t="n">
-        <v>113.7035219164889</v>
+        <v>434.8805500049405</v>
       </c>
       <c r="L39" t="n">
         <v>135.2567018921682</v>
       </c>
       <c r="M39" t="n">
-        <v>509.2011396954959</v>
+        <v>165.7569102594273</v>
       </c>
       <c r="N39" t="n">
-        <v>509.2011396954959</v>
+        <v>176.0384480962656</v>
       </c>
       <c r="O39" t="n">
         <v>151.950871888023</v>
       </c>
       <c r="P39" t="n">
-        <v>509.2011396954959</v>
+        <v>114.0449892706629</v>
       </c>
       <c r="Q39" t="n">
-        <v>55.81456567576151</v>
+        <v>465.885431336139</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>84.58087727876456</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0.8083620842648713</v>
+        <v>66.46630514622082</v>
       </c>
       <c r="K40" t="n">
-        <v>241.9623075642979</v>
+        <v>108.3586594436105</v>
       </c>
       <c r="L40" t="n">
         <v>372.3792886721011</v>
@@ -37718,10 +37718,10 @@
         <v>366.6251455854785</v>
       </c>
       <c r="P40" t="n">
-        <v>101.6265923583077</v>
+        <v>297.1217521704096</v>
       </c>
       <c r="Q40" t="n">
-        <v>128.0642415589032</v>
+        <v>0.5147868055323457</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37782,7 +37782,7 @@
         <v>396.5647736577649</v>
       </c>
       <c r="K41" t="n">
-        <v>173.4865037476895</v>
+        <v>120.4052143542844</v>
       </c>
       <c r="L41" t="n">
         <v>164.4694906693659</v>
@@ -37791,19 +37791,19 @@
         <v>195.9596772022534</v>
       </c>
       <c r="N41" t="n">
-        <v>201.0179767129889</v>
+        <v>341.250631251621</v>
       </c>
       <c r="O41" t="n">
+        <v>184.3602410646737</v>
+      </c>
+      <c r="P41" t="n">
         <v>509.2011396954959</v>
-      </c>
-      <c r="P41" t="n">
-        <v>143.2331546178394</v>
       </c>
       <c r="Q41" t="n">
         <v>87.8551013282723</v>
       </c>
       <c r="R41" t="n">
-        <v>144.4429577282736</v>
+        <v>16.16450613621186</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,13 +37855,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>9.804599448060312</v>
       </c>
       <c r="J42" t="n">
-        <v>31.90169490101393</v>
+        <v>278.031395885492</v>
       </c>
       <c r="K42" t="n">
-        <v>509.2011396954959</v>
+        <v>86.49750610959703</v>
       </c>
       <c r="L42" t="n">
         <v>135.2567018921682</v>
@@ -37870,16 +37870,16 @@
         <v>165.7569102594273</v>
       </c>
       <c r="N42" t="n">
-        <v>372.566874073793</v>
+        <v>176.0384480962656</v>
       </c>
       <c r="O42" t="n">
         <v>151.950871888023</v>
       </c>
       <c r="P42" t="n">
-        <v>509.2011396954959</v>
+        <v>462.4280331660065</v>
       </c>
       <c r="Q42" t="n">
-        <v>55.81456567576151</v>
+        <v>465.885431336139</v>
       </c>
       <c r="R42" t="n">
         <v>84.58087727876456</v>
@@ -37940,7 +37940,7 @@
         <v>66.46630514622082</v>
       </c>
       <c r="K43" t="n">
-        <v>241.9623075642979</v>
+        <v>108.3586594436105</v>
       </c>
       <c r="L43" t="n">
         <v>372.3792886721011</v>
@@ -37952,13 +37952,13 @@
         <v>396.750155265299</v>
       </c>
       <c r="O43" t="n">
-        <v>105.4720427114204</v>
+        <v>366.6251455854785</v>
       </c>
       <c r="P43" t="n">
         <v>297.1217521704096</v>
       </c>
       <c r="Q43" t="n">
-        <v>128.0642415589032</v>
+        <v>0.5147868055323457</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38092,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>9.804599448060312</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>31.90169490101393</v>
+        <v>278.031395885492</v>
       </c>
       <c r="K45" t="n">
         <v>86.49750610959703</v>
       </c>
       <c r="L45" t="n">
-        <v>190.5640008683598</v>
+        <v>135.2567018921682</v>
       </c>
       <c r="M45" t="n">
-        <v>509.2011396954959</v>
+        <v>165.7569102594273</v>
       </c>
       <c r="N45" t="n">
-        <v>509.2011396954959</v>
+        <v>176.0384480962656</v>
       </c>
       <c r="O45" t="n">
         <v>509.2011396954959</v>
       </c>
       <c r="P45" t="n">
-        <v>114.0449892706629</v>
+        <v>114.9823648065938</v>
       </c>
       <c r="Q45" t="n">
-        <v>55.81456567576151</v>
+        <v>465.885431336139</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>84.58087727876456</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38180,13 +38180,13 @@
         <v>241.9623075642979</v>
       </c>
       <c r="L46" t="n">
-        <v>111.226185798043</v>
+        <v>372.3792886721011</v>
       </c>
       <c r="M46" t="n">
         <v>408.0146822712912</v>
       </c>
       <c r="N46" t="n">
-        <v>396.750155265299</v>
+        <v>135.5970523912408</v>
       </c>
       <c r="O46" t="n">
         <v>366.6251455854785</v>
